--- a/20_営業/12_OIC共通/BR100/ERP_T_BR100_CCD_OIC_ルックアップ.xlsx
+++ b/20_営業/12_OIC共通/BR100/ERP_T_BR100_CCD_OIC_ルックアップ.xlsx
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">'ルックアップ(Constant)'!$B$14:$C$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6">'ルックアップ(XXCCD_CMM001A03)'!$B$14:$C$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5">'ルックアップ(XXCCD_CONSTANT_SYSTEM_DE'!$B$14:$C$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ルックアップ(XXCCD_CONSTANT_SYSTEM_IN'!$B$14:$C$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ルックアップ(XXCCD_CONSTANT_SYSTEM_IN'!$B$14:$C$195</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7">'ルックアップ(XXCFO_XXCFO007A03)'!$B$14:$C$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8">'ルックアップ(XXCFO_XXCFO010A08)'!$B$14:$C$14</definedName>
     <definedName name="Z_07967610_A502_4BAA_BB27_026290C9EFA8_.wvu.FilterData" localSheetId="3">'ルックアップ(Constant)'!$A$14:$C$198</definedName>
@@ -187,12 +187,12 @@
     <definedName name="Z_E7CA3E4A_06EB_4811_A53A_FBFFC16B66DD_.wvu.PrintTitles" localSheetId="7">'ルックアップ(XXCFO_XXCFO007A03)'!$1:$14</definedName>
     <definedName name="Z_E7CA3E4A_06EB_4811_A53A_FBFFC16B66DD_.wvu.PrintTitles" localSheetId="8">'ルックアップ(XXCFO_XXCFO010A08)'!$1:$14</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="520">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -1223,9 +1223,6 @@
   </si>
   <si>
     <t>IbyTempPmtInstrUses.csv</t>
-  </si>
-  <si>
-    <t>INVOICE_LINE_TYPE_TAX</t>
   </si>
   <si>
     <t>PATH_LITERAL_SLASH</t>
@@ -1264,10 +1261,6 @@
       <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>XXCCD_CONSTANT_SYSTEM_INDEPENDENT</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Suppliers</t>
@@ -2043,10 +2036,6 @@
   </si>
   <si>
     <t>Issue1.7</t>
-    <phoneticPr fontId="22"/>
-  </si>
-  <si>
-    <t>Issue1.7</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2070,11 +2059,60 @@
     <t>180</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>SCSK 金田耕治</t>
+    <rPh sb="5" eb="7">
+      <t>カナダ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Issue1.8</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>XXCCD_CONSTANT_SYSTEM_INDEPENDENT</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>税金</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2023/12/20</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Tax→税金</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>INVOICE_LINE_TYPE_TAX</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>E_本稼動_19738対応
+XXCCD_CONSTANT_SYSTEM_INDEPENDENT
+＞INVOICE_LINE_TYPE_TAX  の値を変更</t>
+    <rPh sb="11" eb="13">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -2345,14 +2383,14 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="8"/>
       <color rgb="FFFF00FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2386,6 +2424,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2688,7 +2732,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2735,9 +2779,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -2922,15 +2963,20 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="37" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2943,10 +2989,10 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2958,7 +3004,13 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2968,7 +3020,15 @@
     <cellStyle name="標準 8" xfId="1"/>
     <cellStyle name="標準_BR100_表紙テンプレート" xfId="4"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3033,6 +3093,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FFFF00FF"/>
     </mruColors>
   </colors>
@@ -3341,512 +3402,515 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="45"/>
-    <col min="3" max="3" width="11.625" style="45" customWidth="1"/>
-    <col min="4" max="5" width="9" style="45"/>
-    <col min="6" max="6" width="9.5" style="45" customWidth="1"/>
-    <col min="7" max="258" width="9" style="45"/>
-    <col min="259" max="259" width="10.75" style="45" customWidth="1"/>
-    <col min="260" max="261" width="9" style="45"/>
-    <col min="262" max="262" width="9.5" style="45" customWidth="1"/>
-    <col min="263" max="514" width="9" style="45"/>
-    <col min="515" max="515" width="10.75" style="45" customWidth="1"/>
-    <col min="516" max="517" width="9" style="45"/>
-    <col min="518" max="518" width="9.5" style="45" customWidth="1"/>
-    <col min="519" max="770" width="9" style="45"/>
-    <col min="771" max="771" width="10.75" style="45" customWidth="1"/>
-    <col min="772" max="773" width="9" style="45"/>
-    <col min="774" max="774" width="9.5" style="45" customWidth="1"/>
-    <col min="775" max="1026" width="9" style="45"/>
-    <col min="1027" max="1027" width="10.75" style="45" customWidth="1"/>
-    <col min="1028" max="1029" width="9" style="45"/>
-    <col min="1030" max="1030" width="9.5" style="45" customWidth="1"/>
-    <col min="1031" max="1282" width="9" style="45"/>
-    <col min="1283" max="1283" width="10.75" style="45" customWidth="1"/>
-    <col min="1284" max="1285" width="9" style="45"/>
-    <col min="1286" max="1286" width="9.5" style="45" customWidth="1"/>
-    <col min="1287" max="1538" width="9" style="45"/>
-    <col min="1539" max="1539" width="10.75" style="45" customWidth="1"/>
-    <col min="1540" max="1541" width="9" style="45"/>
-    <col min="1542" max="1542" width="9.5" style="45" customWidth="1"/>
-    <col min="1543" max="1794" width="9" style="45"/>
-    <col min="1795" max="1795" width="10.75" style="45" customWidth="1"/>
-    <col min="1796" max="1797" width="9" style="45"/>
-    <col min="1798" max="1798" width="9.5" style="45" customWidth="1"/>
-    <col min="1799" max="2050" width="9" style="45"/>
-    <col min="2051" max="2051" width="10.75" style="45" customWidth="1"/>
-    <col min="2052" max="2053" width="9" style="45"/>
-    <col min="2054" max="2054" width="9.5" style="45" customWidth="1"/>
-    <col min="2055" max="2306" width="9" style="45"/>
-    <col min="2307" max="2307" width="10.75" style="45" customWidth="1"/>
-    <col min="2308" max="2309" width="9" style="45"/>
-    <col min="2310" max="2310" width="9.5" style="45" customWidth="1"/>
-    <col min="2311" max="2562" width="9" style="45"/>
-    <col min="2563" max="2563" width="10.75" style="45" customWidth="1"/>
-    <col min="2564" max="2565" width="9" style="45"/>
-    <col min="2566" max="2566" width="9.5" style="45" customWidth="1"/>
-    <col min="2567" max="2818" width="9" style="45"/>
-    <col min="2819" max="2819" width="10.75" style="45" customWidth="1"/>
-    <col min="2820" max="2821" width="9" style="45"/>
-    <col min="2822" max="2822" width="9.5" style="45" customWidth="1"/>
-    <col min="2823" max="3074" width="9" style="45"/>
-    <col min="3075" max="3075" width="10.75" style="45" customWidth="1"/>
-    <col min="3076" max="3077" width="9" style="45"/>
-    <col min="3078" max="3078" width="9.5" style="45" customWidth="1"/>
-    <col min="3079" max="3330" width="9" style="45"/>
-    <col min="3331" max="3331" width="10.75" style="45" customWidth="1"/>
-    <col min="3332" max="3333" width="9" style="45"/>
-    <col min="3334" max="3334" width="9.5" style="45" customWidth="1"/>
-    <col min="3335" max="3586" width="9" style="45"/>
-    <col min="3587" max="3587" width="10.75" style="45" customWidth="1"/>
-    <col min="3588" max="3589" width="9" style="45"/>
-    <col min="3590" max="3590" width="9.5" style="45" customWidth="1"/>
-    <col min="3591" max="3842" width="9" style="45"/>
-    <col min="3843" max="3843" width="10.75" style="45" customWidth="1"/>
-    <col min="3844" max="3845" width="9" style="45"/>
-    <col min="3846" max="3846" width="9.5" style="45" customWidth="1"/>
-    <col min="3847" max="4098" width="9" style="45"/>
-    <col min="4099" max="4099" width="10.75" style="45" customWidth="1"/>
-    <col min="4100" max="4101" width="9" style="45"/>
-    <col min="4102" max="4102" width="9.5" style="45" customWidth="1"/>
-    <col min="4103" max="4354" width="9" style="45"/>
-    <col min="4355" max="4355" width="10.75" style="45" customWidth="1"/>
-    <col min="4356" max="4357" width="9" style="45"/>
-    <col min="4358" max="4358" width="9.5" style="45" customWidth="1"/>
-    <col min="4359" max="4610" width="9" style="45"/>
-    <col min="4611" max="4611" width="10.75" style="45" customWidth="1"/>
-    <col min="4612" max="4613" width="9" style="45"/>
-    <col min="4614" max="4614" width="9.5" style="45" customWidth="1"/>
-    <col min="4615" max="4866" width="9" style="45"/>
-    <col min="4867" max="4867" width="10.75" style="45" customWidth="1"/>
-    <col min="4868" max="4869" width="9" style="45"/>
-    <col min="4870" max="4870" width="9.5" style="45" customWidth="1"/>
-    <col min="4871" max="5122" width="9" style="45"/>
-    <col min="5123" max="5123" width="10.75" style="45" customWidth="1"/>
-    <col min="5124" max="5125" width="9" style="45"/>
-    <col min="5126" max="5126" width="9.5" style="45" customWidth="1"/>
-    <col min="5127" max="5378" width="9" style="45"/>
-    <col min="5379" max="5379" width="10.75" style="45" customWidth="1"/>
-    <col min="5380" max="5381" width="9" style="45"/>
-    <col min="5382" max="5382" width="9.5" style="45" customWidth="1"/>
-    <col min="5383" max="5634" width="9" style="45"/>
-    <col min="5635" max="5635" width="10.75" style="45" customWidth="1"/>
-    <col min="5636" max="5637" width="9" style="45"/>
-    <col min="5638" max="5638" width="9.5" style="45" customWidth="1"/>
-    <col min="5639" max="5890" width="9" style="45"/>
-    <col min="5891" max="5891" width="10.75" style="45" customWidth="1"/>
-    <col min="5892" max="5893" width="9" style="45"/>
-    <col min="5894" max="5894" width="9.5" style="45" customWidth="1"/>
-    <col min="5895" max="6146" width="9" style="45"/>
-    <col min="6147" max="6147" width="10.75" style="45" customWidth="1"/>
-    <col min="6148" max="6149" width="9" style="45"/>
-    <col min="6150" max="6150" width="9.5" style="45" customWidth="1"/>
-    <col min="6151" max="6402" width="9" style="45"/>
-    <col min="6403" max="6403" width="10.75" style="45" customWidth="1"/>
-    <col min="6404" max="6405" width="9" style="45"/>
-    <col min="6406" max="6406" width="9.5" style="45" customWidth="1"/>
-    <col min="6407" max="6658" width="9" style="45"/>
-    <col min="6659" max="6659" width="10.75" style="45" customWidth="1"/>
-    <col min="6660" max="6661" width="9" style="45"/>
-    <col min="6662" max="6662" width="9.5" style="45" customWidth="1"/>
-    <col min="6663" max="6914" width="9" style="45"/>
-    <col min="6915" max="6915" width="10.75" style="45" customWidth="1"/>
-    <col min="6916" max="6917" width="9" style="45"/>
-    <col min="6918" max="6918" width="9.5" style="45" customWidth="1"/>
-    <col min="6919" max="7170" width="9" style="45"/>
-    <col min="7171" max="7171" width="10.75" style="45" customWidth="1"/>
-    <col min="7172" max="7173" width="9" style="45"/>
-    <col min="7174" max="7174" width="9.5" style="45" customWidth="1"/>
-    <col min="7175" max="7426" width="9" style="45"/>
-    <col min="7427" max="7427" width="10.75" style="45" customWidth="1"/>
-    <col min="7428" max="7429" width="9" style="45"/>
-    <col min="7430" max="7430" width="9.5" style="45" customWidth="1"/>
-    <col min="7431" max="7682" width="9" style="45"/>
-    <col min="7683" max="7683" width="10.75" style="45" customWidth="1"/>
-    <col min="7684" max="7685" width="9" style="45"/>
-    <col min="7686" max="7686" width="9.5" style="45" customWidth="1"/>
-    <col min="7687" max="7938" width="9" style="45"/>
-    <col min="7939" max="7939" width="10.75" style="45" customWidth="1"/>
-    <col min="7940" max="7941" width="9" style="45"/>
-    <col min="7942" max="7942" width="9.5" style="45" customWidth="1"/>
-    <col min="7943" max="8194" width="9" style="45"/>
-    <col min="8195" max="8195" width="10.75" style="45" customWidth="1"/>
-    <col min="8196" max="8197" width="9" style="45"/>
-    <col min="8198" max="8198" width="9.5" style="45" customWidth="1"/>
-    <col min="8199" max="8450" width="9" style="45"/>
-    <col min="8451" max="8451" width="10.75" style="45" customWidth="1"/>
-    <col min="8452" max="8453" width="9" style="45"/>
-    <col min="8454" max="8454" width="9.5" style="45" customWidth="1"/>
-    <col min="8455" max="8706" width="9" style="45"/>
-    <col min="8707" max="8707" width="10.75" style="45" customWidth="1"/>
-    <col min="8708" max="8709" width="9" style="45"/>
-    <col min="8710" max="8710" width="9.5" style="45" customWidth="1"/>
-    <col min="8711" max="8962" width="9" style="45"/>
-    <col min="8963" max="8963" width="10.75" style="45" customWidth="1"/>
-    <col min="8964" max="8965" width="9" style="45"/>
-    <col min="8966" max="8966" width="9.5" style="45" customWidth="1"/>
-    <col min="8967" max="9218" width="9" style="45"/>
-    <col min="9219" max="9219" width="10.75" style="45" customWidth="1"/>
-    <col min="9220" max="9221" width="9" style="45"/>
-    <col min="9222" max="9222" width="9.5" style="45" customWidth="1"/>
-    <col min="9223" max="9474" width="9" style="45"/>
-    <col min="9475" max="9475" width="10.75" style="45" customWidth="1"/>
-    <col min="9476" max="9477" width="9" style="45"/>
-    <col min="9478" max="9478" width="9.5" style="45" customWidth="1"/>
-    <col min="9479" max="9730" width="9" style="45"/>
-    <col min="9731" max="9731" width="10.75" style="45" customWidth="1"/>
-    <col min="9732" max="9733" width="9" style="45"/>
-    <col min="9734" max="9734" width="9.5" style="45" customWidth="1"/>
-    <col min="9735" max="9986" width="9" style="45"/>
-    <col min="9987" max="9987" width="10.75" style="45" customWidth="1"/>
-    <col min="9988" max="9989" width="9" style="45"/>
-    <col min="9990" max="9990" width="9.5" style="45" customWidth="1"/>
-    <col min="9991" max="10242" width="9" style="45"/>
-    <col min="10243" max="10243" width="10.75" style="45" customWidth="1"/>
-    <col min="10244" max="10245" width="9" style="45"/>
-    <col min="10246" max="10246" width="9.5" style="45" customWidth="1"/>
-    <col min="10247" max="10498" width="9" style="45"/>
-    <col min="10499" max="10499" width="10.75" style="45" customWidth="1"/>
-    <col min="10500" max="10501" width="9" style="45"/>
-    <col min="10502" max="10502" width="9.5" style="45" customWidth="1"/>
-    <col min="10503" max="10754" width="9" style="45"/>
-    <col min="10755" max="10755" width="10.75" style="45" customWidth="1"/>
-    <col min="10756" max="10757" width="9" style="45"/>
-    <col min="10758" max="10758" width="9.5" style="45" customWidth="1"/>
-    <col min="10759" max="11010" width="9" style="45"/>
-    <col min="11011" max="11011" width="10.75" style="45" customWidth="1"/>
-    <col min="11012" max="11013" width="9" style="45"/>
-    <col min="11014" max="11014" width="9.5" style="45" customWidth="1"/>
-    <col min="11015" max="11266" width="9" style="45"/>
-    <col min="11267" max="11267" width="10.75" style="45" customWidth="1"/>
-    <col min="11268" max="11269" width="9" style="45"/>
-    <col min="11270" max="11270" width="9.5" style="45" customWidth="1"/>
-    <col min="11271" max="11522" width="9" style="45"/>
-    <col min="11523" max="11523" width="10.75" style="45" customWidth="1"/>
-    <col min="11524" max="11525" width="9" style="45"/>
-    <col min="11526" max="11526" width="9.5" style="45" customWidth="1"/>
-    <col min="11527" max="11778" width="9" style="45"/>
-    <col min="11779" max="11779" width="10.75" style="45" customWidth="1"/>
-    <col min="11780" max="11781" width="9" style="45"/>
-    <col min="11782" max="11782" width="9.5" style="45" customWidth="1"/>
-    <col min="11783" max="12034" width="9" style="45"/>
-    <col min="12035" max="12035" width="10.75" style="45" customWidth="1"/>
-    <col min="12036" max="12037" width="9" style="45"/>
-    <col min="12038" max="12038" width="9.5" style="45" customWidth="1"/>
-    <col min="12039" max="12290" width="9" style="45"/>
-    <col min="12291" max="12291" width="10.75" style="45" customWidth="1"/>
-    <col min="12292" max="12293" width="9" style="45"/>
-    <col min="12294" max="12294" width="9.5" style="45" customWidth="1"/>
-    <col min="12295" max="12546" width="9" style="45"/>
-    <col min="12547" max="12547" width="10.75" style="45" customWidth="1"/>
-    <col min="12548" max="12549" width="9" style="45"/>
-    <col min="12550" max="12550" width="9.5" style="45" customWidth="1"/>
-    <col min="12551" max="12802" width="9" style="45"/>
-    <col min="12803" max="12803" width="10.75" style="45" customWidth="1"/>
-    <col min="12804" max="12805" width="9" style="45"/>
-    <col min="12806" max="12806" width="9.5" style="45" customWidth="1"/>
-    <col min="12807" max="13058" width="9" style="45"/>
-    <col min="13059" max="13059" width="10.75" style="45" customWidth="1"/>
-    <col min="13060" max="13061" width="9" style="45"/>
-    <col min="13062" max="13062" width="9.5" style="45" customWidth="1"/>
-    <col min="13063" max="13314" width="9" style="45"/>
-    <col min="13315" max="13315" width="10.75" style="45" customWidth="1"/>
-    <col min="13316" max="13317" width="9" style="45"/>
-    <col min="13318" max="13318" width="9.5" style="45" customWidth="1"/>
-    <col min="13319" max="13570" width="9" style="45"/>
-    <col min="13571" max="13571" width="10.75" style="45" customWidth="1"/>
-    <col min="13572" max="13573" width="9" style="45"/>
-    <col min="13574" max="13574" width="9.5" style="45" customWidth="1"/>
-    <col min="13575" max="13826" width="9" style="45"/>
-    <col min="13827" max="13827" width="10.75" style="45" customWidth="1"/>
-    <col min="13828" max="13829" width="9" style="45"/>
-    <col min="13830" max="13830" width="9.5" style="45" customWidth="1"/>
-    <col min="13831" max="14082" width="9" style="45"/>
-    <col min="14083" max="14083" width="10.75" style="45" customWidth="1"/>
-    <col min="14084" max="14085" width="9" style="45"/>
-    <col min="14086" max="14086" width="9.5" style="45" customWidth="1"/>
-    <col min="14087" max="14338" width="9" style="45"/>
-    <col min="14339" max="14339" width="10.75" style="45" customWidth="1"/>
-    <col min="14340" max="14341" width="9" style="45"/>
-    <col min="14342" max="14342" width="9.5" style="45" customWidth="1"/>
-    <col min="14343" max="14594" width="9" style="45"/>
-    <col min="14595" max="14595" width="10.75" style="45" customWidth="1"/>
-    <col min="14596" max="14597" width="9" style="45"/>
-    <col min="14598" max="14598" width="9.5" style="45" customWidth="1"/>
-    <col min="14599" max="14850" width="9" style="45"/>
-    <col min="14851" max="14851" width="10.75" style="45" customWidth="1"/>
-    <col min="14852" max="14853" width="9" style="45"/>
-    <col min="14854" max="14854" width="9.5" style="45" customWidth="1"/>
-    <col min="14855" max="15106" width="9" style="45"/>
-    <col min="15107" max="15107" width="10.75" style="45" customWidth="1"/>
-    <col min="15108" max="15109" width="9" style="45"/>
-    <col min="15110" max="15110" width="9.5" style="45" customWidth="1"/>
-    <col min="15111" max="15362" width="9" style="45"/>
-    <col min="15363" max="15363" width="10.75" style="45" customWidth="1"/>
-    <col min="15364" max="15365" width="9" style="45"/>
-    <col min="15366" max="15366" width="9.5" style="45" customWidth="1"/>
-    <col min="15367" max="15618" width="9" style="45"/>
-    <col min="15619" max="15619" width="10.75" style="45" customWidth="1"/>
-    <col min="15620" max="15621" width="9" style="45"/>
-    <col min="15622" max="15622" width="9.5" style="45" customWidth="1"/>
-    <col min="15623" max="15874" width="9" style="45"/>
-    <col min="15875" max="15875" width="10.75" style="45" customWidth="1"/>
-    <col min="15876" max="15877" width="9" style="45"/>
-    <col min="15878" max="15878" width="9.5" style="45" customWidth="1"/>
-    <col min="15879" max="16130" width="9" style="45"/>
-    <col min="16131" max="16131" width="10.75" style="45" customWidth="1"/>
-    <col min="16132" max="16133" width="9" style="45"/>
-    <col min="16134" max="16134" width="9.5" style="45" customWidth="1"/>
-    <col min="16135" max="16384" width="9" style="45"/>
+    <col min="1" max="2" width="9" style="44"/>
+    <col min="3" max="3" width="11.625" style="44" customWidth="1"/>
+    <col min="4" max="5" width="9" style="44"/>
+    <col min="6" max="6" width="9.5" style="44" customWidth="1"/>
+    <col min="7" max="258" width="9" style="44"/>
+    <col min="259" max="259" width="10.75" style="44" customWidth="1"/>
+    <col min="260" max="261" width="9" style="44"/>
+    <col min="262" max="262" width="9.5" style="44" customWidth="1"/>
+    <col min="263" max="514" width="9" style="44"/>
+    <col min="515" max="515" width="10.75" style="44" customWidth="1"/>
+    <col min="516" max="517" width="9" style="44"/>
+    <col min="518" max="518" width="9.5" style="44" customWidth="1"/>
+    <col min="519" max="770" width="9" style="44"/>
+    <col min="771" max="771" width="10.75" style="44" customWidth="1"/>
+    <col min="772" max="773" width="9" style="44"/>
+    <col min="774" max="774" width="9.5" style="44" customWidth="1"/>
+    <col min="775" max="1026" width="9" style="44"/>
+    <col min="1027" max="1027" width="10.75" style="44" customWidth="1"/>
+    <col min="1028" max="1029" width="9" style="44"/>
+    <col min="1030" max="1030" width="9.5" style="44" customWidth="1"/>
+    <col min="1031" max="1282" width="9" style="44"/>
+    <col min="1283" max="1283" width="10.75" style="44" customWidth="1"/>
+    <col min="1284" max="1285" width="9" style="44"/>
+    <col min="1286" max="1286" width="9.5" style="44" customWidth="1"/>
+    <col min="1287" max="1538" width="9" style="44"/>
+    <col min="1539" max="1539" width="10.75" style="44" customWidth="1"/>
+    <col min="1540" max="1541" width="9" style="44"/>
+    <col min="1542" max="1542" width="9.5" style="44" customWidth="1"/>
+    <col min="1543" max="1794" width="9" style="44"/>
+    <col min="1795" max="1795" width="10.75" style="44" customWidth="1"/>
+    <col min="1796" max="1797" width="9" style="44"/>
+    <col min="1798" max="1798" width="9.5" style="44" customWidth="1"/>
+    <col min="1799" max="2050" width="9" style="44"/>
+    <col min="2051" max="2051" width="10.75" style="44" customWidth="1"/>
+    <col min="2052" max="2053" width="9" style="44"/>
+    <col min="2054" max="2054" width="9.5" style="44" customWidth="1"/>
+    <col min="2055" max="2306" width="9" style="44"/>
+    <col min="2307" max="2307" width="10.75" style="44" customWidth="1"/>
+    <col min="2308" max="2309" width="9" style="44"/>
+    <col min="2310" max="2310" width="9.5" style="44" customWidth="1"/>
+    <col min="2311" max="2562" width="9" style="44"/>
+    <col min="2563" max="2563" width="10.75" style="44" customWidth="1"/>
+    <col min="2564" max="2565" width="9" style="44"/>
+    <col min="2566" max="2566" width="9.5" style="44" customWidth="1"/>
+    <col min="2567" max="2818" width="9" style="44"/>
+    <col min="2819" max="2819" width="10.75" style="44" customWidth="1"/>
+    <col min="2820" max="2821" width="9" style="44"/>
+    <col min="2822" max="2822" width="9.5" style="44" customWidth="1"/>
+    <col min="2823" max="3074" width="9" style="44"/>
+    <col min="3075" max="3075" width="10.75" style="44" customWidth="1"/>
+    <col min="3076" max="3077" width="9" style="44"/>
+    <col min="3078" max="3078" width="9.5" style="44" customWidth="1"/>
+    <col min="3079" max="3330" width="9" style="44"/>
+    <col min="3331" max="3331" width="10.75" style="44" customWidth="1"/>
+    <col min="3332" max="3333" width="9" style="44"/>
+    <col min="3334" max="3334" width="9.5" style="44" customWidth="1"/>
+    <col min="3335" max="3586" width="9" style="44"/>
+    <col min="3587" max="3587" width="10.75" style="44" customWidth="1"/>
+    <col min="3588" max="3589" width="9" style="44"/>
+    <col min="3590" max="3590" width="9.5" style="44" customWidth="1"/>
+    <col min="3591" max="3842" width="9" style="44"/>
+    <col min="3843" max="3843" width="10.75" style="44" customWidth="1"/>
+    <col min="3844" max="3845" width="9" style="44"/>
+    <col min="3846" max="3846" width="9.5" style="44" customWidth="1"/>
+    <col min="3847" max="4098" width="9" style="44"/>
+    <col min="4099" max="4099" width="10.75" style="44" customWidth="1"/>
+    <col min="4100" max="4101" width="9" style="44"/>
+    <col min="4102" max="4102" width="9.5" style="44" customWidth="1"/>
+    <col min="4103" max="4354" width="9" style="44"/>
+    <col min="4355" max="4355" width="10.75" style="44" customWidth="1"/>
+    <col min="4356" max="4357" width="9" style="44"/>
+    <col min="4358" max="4358" width="9.5" style="44" customWidth="1"/>
+    <col min="4359" max="4610" width="9" style="44"/>
+    <col min="4611" max="4611" width="10.75" style="44" customWidth="1"/>
+    <col min="4612" max="4613" width="9" style="44"/>
+    <col min="4614" max="4614" width="9.5" style="44" customWidth="1"/>
+    <col min="4615" max="4866" width="9" style="44"/>
+    <col min="4867" max="4867" width="10.75" style="44" customWidth="1"/>
+    <col min="4868" max="4869" width="9" style="44"/>
+    <col min="4870" max="4870" width="9.5" style="44" customWidth="1"/>
+    <col min="4871" max="5122" width="9" style="44"/>
+    <col min="5123" max="5123" width="10.75" style="44" customWidth="1"/>
+    <col min="5124" max="5125" width="9" style="44"/>
+    <col min="5126" max="5126" width="9.5" style="44" customWidth="1"/>
+    <col min="5127" max="5378" width="9" style="44"/>
+    <col min="5379" max="5379" width="10.75" style="44" customWidth="1"/>
+    <col min="5380" max="5381" width="9" style="44"/>
+    <col min="5382" max="5382" width="9.5" style="44" customWidth="1"/>
+    <col min="5383" max="5634" width="9" style="44"/>
+    <col min="5635" max="5635" width="10.75" style="44" customWidth="1"/>
+    <col min="5636" max="5637" width="9" style="44"/>
+    <col min="5638" max="5638" width="9.5" style="44" customWidth="1"/>
+    <col min="5639" max="5890" width="9" style="44"/>
+    <col min="5891" max="5891" width="10.75" style="44" customWidth="1"/>
+    <col min="5892" max="5893" width="9" style="44"/>
+    <col min="5894" max="5894" width="9.5" style="44" customWidth="1"/>
+    <col min="5895" max="6146" width="9" style="44"/>
+    <col min="6147" max="6147" width="10.75" style="44" customWidth="1"/>
+    <col min="6148" max="6149" width="9" style="44"/>
+    <col min="6150" max="6150" width="9.5" style="44" customWidth="1"/>
+    <col min="6151" max="6402" width="9" style="44"/>
+    <col min="6403" max="6403" width="10.75" style="44" customWidth="1"/>
+    <col min="6404" max="6405" width="9" style="44"/>
+    <col min="6406" max="6406" width="9.5" style="44" customWidth="1"/>
+    <col min="6407" max="6658" width="9" style="44"/>
+    <col min="6659" max="6659" width="10.75" style="44" customWidth="1"/>
+    <col min="6660" max="6661" width="9" style="44"/>
+    <col min="6662" max="6662" width="9.5" style="44" customWidth="1"/>
+    <col min="6663" max="6914" width="9" style="44"/>
+    <col min="6915" max="6915" width="10.75" style="44" customWidth="1"/>
+    <col min="6916" max="6917" width="9" style="44"/>
+    <col min="6918" max="6918" width="9.5" style="44" customWidth="1"/>
+    <col min="6919" max="7170" width="9" style="44"/>
+    <col min="7171" max="7171" width="10.75" style="44" customWidth="1"/>
+    <col min="7172" max="7173" width="9" style="44"/>
+    <col min="7174" max="7174" width="9.5" style="44" customWidth="1"/>
+    <col min="7175" max="7426" width="9" style="44"/>
+    <col min="7427" max="7427" width="10.75" style="44" customWidth="1"/>
+    <col min="7428" max="7429" width="9" style="44"/>
+    <col min="7430" max="7430" width="9.5" style="44" customWidth="1"/>
+    <col min="7431" max="7682" width="9" style="44"/>
+    <col min="7683" max="7683" width="10.75" style="44" customWidth="1"/>
+    <col min="7684" max="7685" width="9" style="44"/>
+    <col min="7686" max="7686" width="9.5" style="44" customWidth="1"/>
+    <col min="7687" max="7938" width="9" style="44"/>
+    <col min="7939" max="7939" width="10.75" style="44" customWidth="1"/>
+    <col min="7940" max="7941" width="9" style="44"/>
+    <col min="7942" max="7942" width="9.5" style="44" customWidth="1"/>
+    <col min="7943" max="8194" width="9" style="44"/>
+    <col min="8195" max="8195" width="10.75" style="44" customWidth="1"/>
+    <col min="8196" max="8197" width="9" style="44"/>
+    <col min="8198" max="8198" width="9.5" style="44" customWidth="1"/>
+    <col min="8199" max="8450" width="9" style="44"/>
+    <col min="8451" max="8451" width="10.75" style="44" customWidth="1"/>
+    <col min="8452" max="8453" width="9" style="44"/>
+    <col min="8454" max="8454" width="9.5" style="44" customWidth="1"/>
+    <col min="8455" max="8706" width="9" style="44"/>
+    <col min="8707" max="8707" width="10.75" style="44" customWidth="1"/>
+    <col min="8708" max="8709" width="9" style="44"/>
+    <col min="8710" max="8710" width="9.5" style="44" customWidth="1"/>
+    <col min="8711" max="8962" width="9" style="44"/>
+    <col min="8963" max="8963" width="10.75" style="44" customWidth="1"/>
+    <col min="8964" max="8965" width="9" style="44"/>
+    <col min="8966" max="8966" width="9.5" style="44" customWidth="1"/>
+    <col min="8967" max="9218" width="9" style="44"/>
+    <col min="9219" max="9219" width="10.75" style="44" customWidth="1"/>
+    <col min="9220" max="9221" width="9" style="44"/>
+    <col min="9222" max="9222" width="9.5" style="44" customWidth="1"/>
+    <col min="9223" max="9474" width="9" style="44"/>
+    <col min="9475" max="9475" width="10.75" style="44" customWidth="1"/>
+    <col min="9476" max="9477" width="9" style="44"/>
+    <col min="9478" max="9478" width="9.5" style="44" customWidth="1"/>
+    <col min="9479" max="9730" width="9" style="44"/>
+    <col min="9731" max="9731" width="10.75" style="44" customWidth="1"/>
+    <col min="9732" max="9733" width="9" style="44"/>
+    <col min="9734" max="9734" width="9.5" style="44" customWidth="1"/>
+    <col min="9735" max="9986" width="9" style="44"/>
+    <col min="9987" max="9987" width="10.75" style="44" customWidth="1"/>
+    <col min="9988" max="9989" width="9" style="44"/>
+    <col min="9990" max="9990" width="9.5" style="44" customWidth="1"/>
+    <col min="9991" max="10242" width="9" style="44"/>
+    <col min="10243" max="10243" width="10.75" style="44" customWidth="1"/>
+    <col min="10244" max="10245" width="9" style="44"/>
+    <col min="10246" max="10246" width="9.5" style="44" customWidth="1"/>
+    <col min="10247" max="10498" width="9" style="44"/>
+    <col min="10499" max="10499" width="10.75" style="44" customWidth="1"/>
+    <col min="10500" max="10501" width="9" style="44"/>
+    <col min="10502" max="10502" width="9.5" style="44" customWidth="1"/>
+    <col min="10503" max="10754" width="9" style="44"/>
+    <col min="10755" max="10755" width="10.75" style="44" customWidth="1"/>
+    <col min="10756" max="10757" width="9" style="44"/>
+    <col min="10758" max="10758" width="9.5" style="44" customWidth="1"/>
+    <col min="10759" max="11010" width="9" style="44"/>
+    <col min="11011" max="11011" width="10.75" style="44" customWidth="1"/>
+    <col min="11012" max="11013" width="9" style="44"/>
+    <col min="11014" max="11014" width="9.5" style="44" customWidth="1"/>
+    <col min="11015" max="11266" width="9" style="44"/>
+    <col min="11267" max="11267" width="10.75" style="44" customWidth="1"/>
+    <col min="11268" max="11269" width="9" style="44"/>
+    <col min="11270" max="11270" width="9.5" style="44" customWidth="1"/>
+    <col min="11271" max="11522" width="9" style="44"/>
+    <col min="11523" max="11523" width="10.75" style="44" customWidth="1"/>
+    <col min="11524" max="11525" width="9" style="44"/>
+    <col min="11526" max="11526" width="9.5" style="44" customWidth="1"/>
+    <col min="11527" max="11778" width="9" style="44"/>
+    <col min="11779" max="11779" width="10.75" style="44" customWidth="1"/>
+    <col min="11780" max="11781" width="9" style="44"/>
+    <col min="11782" max="11782" width="9.5" style="44" customWidth="1"/>
+    <col min="11783" max="12034" width="9" style="44"/>
+    <col min="12035" max="12035" width="10.75" style="44" customWidth="1"/>
+    <col min="12036" max="12037" width="9" style="44"/>
+    <col min="12038" max="12038" width="9.5" style="44" customWidth="1"/>
+    <col min="12039" max="12290" width="9" style="44"/>
+    <col min="12291" max="12291" width="10.75" style="44" customWidth="1"/>
+    <col min="12292" max="12293" width="9" style="44"/>
+    <col min="12294" max="12294" width="9.5" style="44" customWidth="1"/>
+    <col min="12295" max="12546" width="9" style="44"/>
+    <col min="12547" max="12547" width="10.75" style="44" customWidth="1"/>
+    <col min="12548" max="12549" width="9" style="44"/>
+    <col min="12550" max="12550" width="9.5" style="44" customWidth="1"/>
+    <col min="12551" max="12802" width="9" style="44"/>
+    <col min="12803" max="12803" width="10.75" style="44" customWidth="1"/>
+    <col min="12804" max="12805" width="9" style="44"/>
+    <col min="12806" max="12806" width="9.5" style="44" customWidth="1"/>
+    <col min="12807" max="13058" width="9" style="44"/>
+    <col min="13059" max="13059" width="10.75" style="44" customWidth="1"/>
+    <col min="13060" max="13061" width="9" style="44"/>
+    <col min="13062" max="13062" width="9.5" style="44" customWidth="1"/>
+    <col min="13063" max="13314" width="9" style="44"/>
+    <col min="13315" max="13315" width="10.75" style="44" customWidth="1"/>
+    <col min="13316" max="13317" width="9" style="44"/>
+    <col min="13318" max="13318" width="9.5" style="44" customWidth="1"/>
+    <col min="13319" max="13570" width="9" style="44"/>
+    <col min="13571" max="13571" width="10.75" style="44" customWidth="1"/>
+    <col min="13572" max="13573" width="9" style="44"/>
+    <col min="13574" max="13574" width="9.5" style="44" customWidth="1"/>
+    <col min="13575" max="13826" width="9" style="44"/>
+    <col min="13827" max="13827" width="10.75" style="44" customWidth="1"/>
+    <col min="13828" max="13829" width="9" style="44"/>
+    <col min="13830" max="13830" width="9.5" style="44" customWidth="1"/>
+    <col min="13831" max="14082" width="9" style="44"/>
+    <col min="14083" max="14083" width="10.75" style="44" customWidth="1"/>
+    <col min="14084" max="14085" width="9" style="44"/>
+    <col min="14086" max="14086" width="9.5" style="44" customWidth="1"/>
+    <col min="14087" max="14338" width="9" style="44"/>
+    <col min="14339" max="14339" width="10.75" style="44" customWidth="1"/>
+    <col min="14340" max="14341" width="9" style="44"/>
+    <col min="14342" max="14342" width="9.5" style="44" customWidth="1"/>
+    <col min="14343" max="14594" width="9" style="44"/>
+    <col min="14595" max="14595" width="10.75" style="44" customWidth="1"/>
+    <col min="14596" max="14597" width="9" style="44"/>
+    <col min="14598" max="14598" width="9.5" style="44" customWidth="1"/>
+    <col min="14599" max="14850" width="9" style="44"/>
+    <col min="14851" max="14851" width="10.75" style="44" customWidth="1"/>
+    <col min="14852" max="14853" width="9" style="44"/>
+    <col min="14854" max="14854" width="9.5" style="44" customWidth="1"/>
+    <col min="14855" max="15106" width="9" style="44"/>
+    <col min="15107" max="15107" width="10.75" style="44" customWidth="1"/>
+    <col min="15108" max="15109" width="9" style="44"/>
+    <col min="15110" max="15110" width="9.5" style="44" customWidth="1"/>
+    <col min="15111" max="15362" width="9" style="44"/>
+    <col min="15363" max="15363" width="10.75" style="44" customWidth="1"/>
+    <col min="15364" max="15365" width="9" style="44"/>
+    <col min="15366" max="15366" width="9.5" style="44" customWidth="1"/>
+    <col min="15367" max="15618" width="9" style="44"/>
+    <col min="15619" max="15619" width="10.75" style="44" customWidth="1"/>
+    <col min="15620" max="15621" width="9" style="44"/>
+    <col min="15622" max="15622" width="9.5" style="44" customWidth="1"/>
+    <col min="15623" max="15874" width="9" style="44"/>
+    <col min="15875" max="15875" width="10.75" style="44" customWidth="1"/>
+    <col min="15876" max="15877" width="9" style="44"/>
+    <col min="15878" max="15878" width="9.5" style="44" customWidth="1"/>
+    <col min="15879" max="16130" width="9" style="44"/>
+    <col min="16131" max="16131" width="10.75" style="44" customWidth="1"/>
+    <col min="16132" max="16133" width="9" style="44"/>
+    <col min="16134" max="16134" width="9.5" style="44" customWidth="1"/>
+    <col min="16135" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="21"/>
-    </row>
-    <row r="2" spans="1:9" s="23" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-    </row>
-    <row r="3" spans="1:9" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" s="22" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="1:9" s="21" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-    </row>
-    <row r="5" spans="1:9" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+    <row r="4" spans="1:9" s="21" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" s="21" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="30" t="s">
+    <row r="6" spans="1:9" s="21" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="27"/>
+      <c r="B6" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="30"/>
-    </row>
-    <row r="7" spans="1:9" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="30" t="s">
+      <c r="C6" s="29"/>
+    </row>
+    <row r="7" spans="1:9" s="21" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="27"/>
+      <c r="B7" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="C7" s="30"/>
-    </row>
-    <row r="8" spans="1:9" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A8" s="31"/>
-    </row>
-    <row r="9" spans="1:9" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A9" s="31"/>
-    </row>
-    <row r="10" spans="1:9" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A10" s="31"/>
-    </row>
-    <row r="11" spans="1:9" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A11" s="31"/>
-    </row>
-    <row r="12" spans="1:9" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A12" s="31"/>
-    </row>
-    <row r="13" spans="1:9" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A13" s="31"/>
-    </row>
-    <row r="14" spans="1:9" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A14" s="31"/>
-    </row>
-    <row r="15" spans="1:9" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A15" s="31"/>
-      <c r="C15" s="22" t="s">
+      <c r="C7" s="29"/>
+    </row>
+    <row r="8" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A8" s="30"/>
+    </row>
+    <row r="9" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A9" s="30"/>
+    </row>
+    <row r="10" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A10" s="30"/>
+    </row>
+    <row r="11" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A11" s="30"/>
+    </row>
+    <row r="12" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A12" s="30"/>
+    </row>
+    <row r="13" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A13" s="30"/>
+    </row>
+    <row r="14" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A14" s="30"/>
+    </row>
+    <row r="15" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A15" s="30"/>
+      <c r="C15" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="D15" s="94" t="s">
+      <c r="D15" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="E15" s="94"/>
-    </row>
-    <row r="16" spans="1:9" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A16" s="31"/>
-      <c r="C16" s="22" t="s">
+      <c r="E15" s="96"/>
+    </row>
+    <row r="16" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A16" s="30"/>
+      <c r="C16" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="D16" s="95">
+      <c r="D16" s="97">
         <v>44847</v>
       </c>
-      <c r="E16" s="94"/>
-    </row>
-    <row r="17" spans="1:5" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A17" s="32"/>
-      <c r="C17" s="22" t="s">
+      <c r="E16" s="96"/>
+    </row>
+    <row r="17" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A17" s="31"/>
+      <c r="C17" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="D17" s="95">
-        <v>45132</v>
-      </c>
-      <c r="E17" s="94"/>
-    </row>
-    <row r="18" spans="1:5" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A18" s="31"/>
-      <c r="C18" s="22" t="s">
+      <c r="D17" s="97">
+        <f>MAX(変更履歴!$B$8:$B$40)</f>
+        <v>45280</v>
+      </c>
+      <c r="E17" s="96"/>
+    </row>
+    <row r="18" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A18" s="30"/>
+      <c r="C18" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="E18" s="33"/>
-    </row>
-    <row r="19" spans="1:5" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A19" s="31"/>
-      <c r="C19" s="22" t="s">
+      <c r="E18" s="32"/>
+    </row>
+    <row r="19" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A19" s="30"/>
+      <c r="C19" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="D19" s="96" t="s">
-        <v>510</v>
-      </c>
-      <c r="E19" s="97"/>
-    </row>
-    <row r="20" spans="1:5" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A20" s="34"/>
-    </row>
-    <row r="21" spans="1:5" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A21" s="35"/>
-    </row>
-    <row r="22" spans="1:5" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A22" s="35"/>
-    </row>
-    <row r="23" spans="1:5" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:5" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="C24" s="22" t="s">
+      <c r="D19" s="98" t="str">
+        <f>VLOOKUP($D$17,変更履歴!$B$8:$D$40,3,FALSE)</f>
+        <v>Issue1.8</v>
+      </c>
+      <c r="E19" s="99"/>
+      <c r="I19" s="89"/>
+    </row>
+    <row r="20" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A20" s="33"/>
+    </row>
+    <row r="21" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A21" s="34"/>
+    </row>
+    <row r="22" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A22" s="34"/>
+    </row>
+    <row r="23" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C24" s="21" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="C25" s="22" t="s">
+    <row r="25" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C25" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-    </row>
-    <row r="26" spans="1:5" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="C26" s="22" t="s">
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+    </row>
+    <row r="26" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C26" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-    </row>
-    <row r="27" spans="1:5" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A27" s="34"/>
-    </row>
-    <row r="28" spans="1:5" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A28" s="34"/>
-    </row>
-    <row r="29" spans="1:5" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A29" s="34"/>
-    </row>
-    <row r="30" spans="1:5" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A30" s="34"/>
-    </row>
-    <row r="31" spans="1:5" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A31" s="34"/>
-    </row>
-    <row r="32" spans="1:5" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A32" s="34"/>
-    </row>
-    <row r="33" spans="1:9" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A33" s="35"/>
-    </row>
-    <row r="34" spans="1:9" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A34" s="35"/>
-    </row>
-    <row r="35" spans="1:9" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="36" t="s">
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+    </row>
+    <row r="27" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A27" s="33"/>
+    </row>
+    <row r="28" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A28" s="33"/>
+    </row>
+    <row r="29" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A29" s="33"/>
+    </row>
+    <row r="30" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A30" s="33"/>
+    </row>
+    <row r="31" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A31" s="33"/>
+    </row>
+    <row r="32" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A32" s="33"/>
+    </row>
+    <row r="33" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A33" s="34"/>
+    </row>
+    <row r="34" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A34" s="34"/>
+    </row>
+    <row r="35" spans="1:9" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
     </row>
     <row r="36" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-    </row>
-    <row r="37" spans="1:9" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A37" s="34"/>
-    </row>
-    <row r="38" spans="1:9" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A38" s="35"/>
-    </row>
-    <row r="39" spans="1:9" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A39" s="35"/>
-    </row>
-    <row r="40" spans="1:9" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="1:9" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A41" s="34"/>
-    </row>
-    <row r="42" spans="1:9" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A42" s="35"/>
-    </row>
-    <row r="43" spans="1:9" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A43" s="35"/>
-    </row>
-    <row r="44" spans="1:9" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:9" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A45" s="34"/>
-    </row>
-    <row r="46" spans="1:9" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A46" s="35"/>
-    </row>
-    <row r="47" spans="1:9" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A47" s="35"/>
-    </row>
-    <row r="48" spans="1:9" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
-    <row r="49" spans="1:1" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A49" s="34"/>
-    </row>
-    <row r="50" spans="1:1" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A50" s="35"/>
-    </row>
-    <row r="51" spans="1:1" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A51" s="35"/>
-    </row>
-    <row r="52" spans="1:1" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
-    <row r="53" spans="1:1" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A53" s="34"/>
-    </row>
-    <row r="54" spans="1:1" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A54" s="35"/>
-    </row>
-    <row r="55" spans="1:1" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A55" s="35"/>
-    </row>
-    <row r="56" spans="1:1" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+    </row>
+    <row r="37" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A37" s="33"/>
+    </row>
+    <row r="38" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A38" s="34"/>
+    </row>
+    <row r="39" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A39" s="34"/>
+    </row>
+    <row r="40" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A41" s="33"/>
+    </row>
+    <row r="42" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A42" s="34"/>
+    </row>
+    <row r="43" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A43" s="34"/>
+    </row>
+    <row r="44" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A45" s="33"/>
+    </row>
+    <row r="46" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A46" s="34"/>
+    </row>
+    <row r="47" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A47" s="34"/>
+    </row>
+    <row r="48" spans="1:9" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
+    <row r="49" spans="1:1" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A49" s="33"/>
+    </row>
+    <row r="50" spans="1:1" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A50" s="34"/>
+    </row>
+    <row r="51" spans="1:1" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A51" s="34"/>
+    </row>
+    <row r="52" spans="1:1" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
+    <row r="53" spans="1:1" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A53" s="33"/>
+    </row>
+    <row r="54" spans="1:1" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A54" s="34"/>
+    </row>
+    <row r="55" spans="1:1" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A55" s="34"/>
+    </row>
+    <row r="56" spans="1:1" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D26:E26"/>
@@ -3869,680 +3933,694 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E21"/>
+  <dimension ref="B1:E22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="22" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="31" style="22" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5" style="22" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="22" customWidth="1"/>
-    <col min="7" max="256" width="8.25" style="22"/>
-    <col min="257" max="257" width="5.5" style="22" customWidth="1"/>
-    <col min="258" max="258" width="10.625" style="22" customWidth="1"/>
-    <col min="259" max="259" width="31" style="22" customWidth="1"/>
-    <col min="260" max="260" width="6.75" style="22" customWidth="1"/>
-    <col min="261" max="261" width="29.5" style="22" customWidth="1"/>
-    <col min="262" max="262" width="9.875" style="22" customWidth="1"/>
-    <col min="263" max="512" width="8.25" style="22"/>
-    <col min="513" max="513" width="5.5" style="22" customWidth="1"/>
-    <col min="514" max="514" width="10.625" style="22" customWidth="1"/>
-    <col min="515" max="515" width="31" style="22" customWidth="1"/>
-    <col min="516" max="516" width="6.75" style="22" customWidth="1"/>
-    <col min="517" max="517" width="29.5" style="22" customWidth="1"/>
-    <col min="518" max="518" width="9.875" style="22" customWidth="1"/>
-    <col min="519" max="768" width="8.25" style="22"/>
-    <col min="769" max="769" width="5.5" style="22" customWidth="1"/>
-    <col min="770" max="770" width="10.625" style="22" customWidth="1"/>
-    <col min="771" max="771" width="31" style="22" customWidth="1"/>
-    <col min="772" max="772" width="6.75" style="22" customWidth="1"/>
-    <col min="773" max="773" width="29.5" style="22" customWidth="1"/>
-    <col min="774" max="774" width="9.875" style="22" customWidth="1"/>
-    <col min="775" max="1024" width="8.25" style="22"/>
-    <col min="1025" max="1025" width="5.5" style="22" customWidth="1"/>
-    <col min="1026" max="1026" width="10.625" style="22" customWidth="1"/>
-    <col min="1027" max="1027" width="31" style="22" customWidth="1"/>
-    <col min="1028" max="1028" width="6.75" style="22" customWidth="1"/>
-    <col min="1029" max="1029" width="29.5" style="22" customWidth="1"/>
-    <col min="1030" max="1030" width="9.875" style="22" customWidth="1"/>
-    <col min="1031" max="1280" width="8.25" style="22"/>
-    <col min="1281" max="1281" width="5.5" style="22" customWidth="1"/>
-    <col min="1282" max="1282" width="10.625" style="22" customWidth="1"/>
-    <col min="1283" max="1283" width="31" style="22" customWidth="1"/>
-    <col min="1284" max="1284" width="6.75" style="22" customWidth="1"/>
-    <col min="1285" max="1285" width="29.5" style="22" customWidth="1"/>
-    <col min="1286" max="1286" width="9.875" style="22" customWidth="1"/>
-    <col min="1287" max="1536" width="8.25" style="22"/>
-    <col min="1537" max="1537" width="5.5" style="22" customWidth="1"/>
-    <col min="1538" max="1538" width="10.625" style="22" customWidth="1"/>
-    <col min="1539" max="1539" width="31" style="22" customWidth="1"/>
-    <col min="1540" max="1540" width="6.75" style="22" customWidth="1"/>
-    <col min="1541" max="1541" width="29.5" style="22" customWidth="1"/>
-    <col min="1542" max="1542" width="9.875" style="22" customWidth="1"/>
-    <col min="1543" max="1792" width="8.25" style="22"/>
-    <col min="1793" max="1793" width="5.5" style="22" customWidth="1"/>
-    <col min="1794" max="1794" width="10.625" style="22" customWidth="1"/>
-    <col min="1795" max="1795" width="31" style="22" customWidth="1"/>
-    <col min="1796" max="1796" width="6.75" style="22" customWidth="1"/>
-    <col min="1797" max="1797" width="29.5" style="22" customWidth="1"/>
-    <col min="1798" max="1798" width="9.875" style="22" customWidth="1"/>
-    <col min="1799" max="2048" width="8.25" style="22"/>
-    <col min="2049" max="2049" width="5.5" style="22" customWidth="1"/>
-    <col min="2050" max="2050" width="10.625" style="22" customWidth="1"/>
-    <col min="2051" max="2051" width="31" style="22" customWidth="1"/>
-    <col min="2052" max="2052" width="6.75" style="22" customWidth="1"/>
-    <col min="2053" max="2053" width="29.5" style="22" customWidth="1"/>
-    <col min="2054" max="2054" width="9.875" style="22" customWidth="1"/>
-    <col min="2055" max="2304" width="8.25" style="22"/>
-    <col min="2305" max="2305" width="5.5" style="22" customWidth="1"/>
-    <col min="2306" max="2306" width="10.625" style="22" customWidth="1"/>
-    <col min="2307" max="2307" width="31" style="22" customWidth="1"/>
-    <col min="2308" max="2308" width="6.75" style="22" customWidth="1"/>
-    <col min="2309" max="2309" width="29.5" style="22" customWidth="1"/>
-    <col min="2310" max="2310" width="9.875" style="22" customWidth="1"/>
-    <col min="2311" max="2560" width="8.25" style="22"/>
-    <col min="2561" max="2561" width="5.5" style="22" customWidth="1"/>
-    <col min="2562" max="2562" width="10.625" style="22" customWidth="1"/>
-    <col min="2563" max="2563" width="31" style="22" customWidth="1"/>
-    <col min="2564" max="2564" width="6.75" style="22" customWidth="1"/>
-    <col min="2565" max="2565" width="29.5" style="22" customWidth="1"/>
-    <col min="2566" max="2566" width="9.875" style="22" customWidth="1"/>
-    <col min="2567" max="2816" width="8.25" style="22"/>
-    <col min="2817" max="2817" width="5.5" style="22" customWidth="1"/>
-    <col min="2818" max="2818" width="10.625" style="22" customWidth="1"/>
-    <col min="2819" max="2819" width="31" style="22" customWidth="1"/>
-    <col min="2820" max="2820" width="6.75" style="22" customWidth="1"/>
-    <col min="2821" max="2821" width="29.5" style="22" customWidth="1"/>
-    <col min="2822" max="2822" width="9.875" style="22" customWidth="1"/>
-    <col min="2823" max="3072" width="8.25" style="22"/>
-    <col min="3073" max="3073" width="5.5" style="22" customWidth="1"/>
-    <col min="3074" max="3074" width="10.625" style="22" customWidth="1"/>
-    <col min="3075" max="3075" width="31" style="22" customWidth="1"/>
-    <col min="3076" max="3076" width="6.75" style="22" customWidth="1"/>
-    <col min="3077" max="3077" width="29.5" style="22" customWidth="1"/>
-    <col min="3078" max="3078" width="9.875" style="22" customWidth="1"/>
-    <col min="3079" max="3328" width="8.25" style="22"/>
-    <col min="3329" max="3329" width="5.5" style="22" customWidth="1"/>
-    <col min="3330" max="3330" width="10.625" style="22" customWidth="1"/>
-    <col min="3331" max="3331" width="31" style="22" customWidth="1"/>
-    <col min="3332" max="3332" width="6.75" style="22" customWidth="1"/>
-    <col min="3333" max="3333" width="29.5" style="22" customWidth="1"/>
-    <col min="3334" max="3334" width="9.875" style="22" customWidth="1"/>
-    <col min="3335" max="3584" width="8.25" style="22"/>
-    <col min="3585" max="3585" width="5.5" style="22" customWidth="1"/>
-    <col min="3586" max="3586" width="10.625" style="22" customWidth="1"/>
-    <col min="3587" max="3587" width="31" style="22" customWidth="1"/>
-    <col min="3588" max="3588" width="6.75" style="22" customWidth="1"/>
-    <col min="3589" max="3589" width="29.5" style="22" customWidth="1"/>
-    <col min="3590" max="3590" width="9.875" style="22" customWidth="1"/>
-    <col min="3591" max="3840" width="8.25" style="22"/>
-    <col min="3841" max="3841" width="5.5" style="22" customWidth="1"/>
-    <col min="3842" max="3842" width="10.625" style="22" customWidth="1"/>
-    <col min="3843" max="3843" width="31" style="22" customWidth="1"/>
-    <col min="3844" max="3844" width="6.75" style="22" customWidth="1"/>
-    <col min="3845" max="3845" width="29.5" style="22" customWidth="1"/>
-    <col min="3846" max="3846" width="9.875" style="22" customWidth="1"/>
-    <col min="3847" max="4096" width="8.25" style="22"/>
-    <col min="4097" max="4097" width="5.5" style="22" customWidth="1"/>
-    <col min="4098" max="4098" width="10.625" style="22" customWidth="1"/>
-    <col min="4099" max="4099" width="31" style="22" customWidth="1"/>
-    <col min="4100" max="4100" width="6.75" style="22" customWidth="1"/>
-    <col min="4101" max="4101" width="29.5" style="22" customWidth="1"/>
-    <col min="4102" max="4102" width="9.875" style="22" customWidth="1"/>
-    <col min="4103" max="4352" width="8.25" style="22"/>
-    <col min="4353" max="4353" width="5.5" style="22" customWidth="1"/>
-    <col min="4354" max="4354" width="10.625" style="22" customWidth="1"/>
-    <col min="4355" max="4355" width="31" style="22" customWidth="1"/>
-    <col min="4356" max="4356" width="6.75" style="22" customWidth="1"/>
-    <col min="4357" max="4357" width="29.5" style="22" customWidth="1"/>
-    <col min="4358" max="4358" width="9.875" style="22" customWidth="1"/>
-    <col min="4359" max="4608" width="8.25" style="22"/>
-    <col min="4609" max="4609" width="5.5" style="22" customWidth="1"/>
-    <col min="4610" max="4610" width="10.625" style="22" customWidth="1"/>
-    <col min="4611" max="4611" width="31" style="22" customWidth="1"/>
-    <col min="4612" max="4612" width="6.75" style="22" customWidth="1"/>
-    <col min="4613" max="4613" width="29.5" style="22" customWidth="1"/>
-    <col min="4614" max="4614" width="9.875" style="22" customWidth="1"/>
-    <col min="4615" max="4864" width="8.25" style="22"/>
-    <col min="4865" max="4865" width="5.5" style="22" customWidth="1"/>
-    <col min="4866" max="4866" width="10.625" style="22" customWidth="1"/>
-    <col min="4867" max="4867" width="31" style="22" customWidth="1"/>
-    <col min="4868" max="4868" width="6.75" style="22" customWidth="1"/>
-    <col min="4869" max="4869" width="29.5" style="22" customWidth="1"/>
-    <col min="4870" max="4870" width="9.875" style="22" customWidth="1"/>
-    <col min="4871" max="5120" width="8.25" style="22"/>
-    <col min="5121" max="5121" width="5.5" style="22" customWidth="1"/>
-    <col min="5122" max="5122" width="10.625" style="22" customWidth="1"/>
-    <col min="5123" max="5123" width="31" style="22" customWidth="1"/>
-    <col min="5124" max="5124" width="6.75" style="22" customWidth="1"/>
-    <col min="5125" max="5125" width="29.5" style="22" customWidth="1"/>
-    <col min="5126" max="5126" width="9.875" style="22" customWidth="1"/>
-    <col min="5127" max="5376" width="8.25" style="22"/>
-    <col min="5377" max="5377" width="5.5" style="22" customWidth="1"/>
-    <col min="5378" max="5378" width="10.625" style="22" customWidth="1"/>
-    <col min="5379" max="5379" width="31" style="22" customWidth="1"/>
-    <col min="5380" max="5380" width="6.75" style="22" customWidth="1"/>
-    <col min="5381" max="5381" width="29.5" style="22" customWidth="1"/>
-    <col min="5382" max="5382" width="9.875" style="22" customWidth="1"/>
-    <col min="5383" max="5632" width="8.25" style="22"/>
-    <col min="5633" max="5633" width="5.5" style="22" customWidth="1"/>
-    <col min="5634" max="5634" width="10.625" style="22" customWidth="1"/>
-    <col min="5635" max="5635" width="31" style="22" customWidth="1"/>
-    <col min="5636" max="5636" width="6.75" style="22" customWidth="1"/>
-    <col min="5637" max="5637" width="29.5" style="22" customWidth="1"/>
-    <col min="5638" max="5638" width="9.875" style="22" customWidth="1"/>
-    <col min="5639" max="5888" width="8.25" style="22"/>
-    <col min="5889" max="5889" width="5.5" style="22" customWidth="1"/>
-    <col min="5890" max="5890" width="10.625" style="22" customWidth="1"/>
-    <col min="5891" max="5891" width="31" style="22" customWidth="1"/>
-    <col min="5892" max="5892" width="6.75" style="22" customWidth="1"/>
-    <col min="5893" max="5893" width="29.5" style="22" customWidth="1"/>
-    <col min="5894" max="5894" width="9.875" style="22" customWidth="1"/>
-    <col min="5895" max="6144" width="8.25" style="22"/>
-    <col min="6145" max="6145" width="5.5" style="22" customWidth="1"/>
-    <col min="6146" max="6146" width="10.625" style="22" customWidth="1"/>
-    <col min="6147" max="6147" width="31" style="22" customWidth="1"/>
-    <col min="6148" max="6148" width="6.75" style="22" customWidth="1"/>
-    <col min="6149" max="6149" width="29.5" style="22" customWidth="1"/>
-    <col min="6150" max="6150" width="9.875" style="22" customWidth="1"/>
-    <col min="6151" max="6400" width="8.25" style="22"/>
-    <col min="6401" max="6401" width="5.5" style="22" customWidth="1"/>
-    <col min="6402" max="6402" width="10.625" style="22" customWidth="1"/>
-    <col min="6403" max="6403" width="31" style="22" customWidth="1"/>
-    <col min="6404" max="6404" width="6.75" style="22" customWidth="1"/>
-    <col min="6405" max="6405" width="29.5" style="22" customWidth="1"/>
-    <col min="6406" max="6406" width="9.875" style="22" customWidth="1"/>
-    <col min="6407" max="6656" width="8.25" style="22"/>
-    <col min="6657" max="6657" width="5.5" style="22" customWidth="1"/>
-    <col min="6658" max="6658" width="10.625" style="22" customWidth="1"/>
-    <col min="6659" max="6659" width="31" style="22" customWidth="1"/>
-    <col min="6660" max="6660" width="6.75" style="22" customWidth="1"/>
-    <col min="6661" max="6661" width="29.5" style="22" customWidth="1"/>
-    <col min="6662" max="6662" width="9.875" style="22" customWidth="1"/>
-    <col min="6663" max="6912" width="8.25" style="22"/>
-    <col min="6913" max="6913" width="5.5" style="22" customWidth="1"/>
-    <col min="6914" max="6914" width="10.625" style="22" customWidth="1"/>
-    <col min="6915" max="6915" width="31" style="22" customWidth="1"/>
-    <col min="6916" max="6916" width="6.75" style="22" customWidth="1"/>
-    <col min="6917" max="6917" width="29.5" style="22" customWidth="1"/>
-    <col min="6918" max="6918" width="9.875" style="22" customWidth="1"/>
-    <col min="6919" max="7168" width="8.25" style="22"/>
-    <col min="7169" max="7169" width="5.5" style="22" customWidth="1"/>
-    <col min="7170" max="7170" width="10.625" style="22" customWidth="1"/>
-    <col min="7171" max="7171" width="31" style="22" customWidth="1"/>
-    <col min="7172" max="7172" width="6.75" style="22" customWidth="1"/>
-    <col min="7173" max="7173" width="29.5" style="22" customWidth="1"/>
-    <col min="7174" max="7174" width="9.875" style="22" customWidth="1"/>
-    <col min="7175" max="7424" width="8.25" style="22"/>
-    <col min="7425" max="7425" width="5.5" style="22" customWidth="1"/>
-    <col min="7426" max="7426" width="10.625" style="22" customWidth="1"/>
-    <col min="7427" max="7427" width="31" style="22" customWidth="1"/>
-    <col min="7428" max="7428" width="6.75" style="22" customWidth="1"/>
-    <col min="7429" max="7429" width="29.5" style="22" customWidth="1"/>
-    <col min="7430" max="7430" width="9.875" style="22" customWidth="1"/>
-    <col min="7431" max="7680" width="8.25" style="22"/>
-    <col min="7681" max="7681" width="5.5" style="22" customWidth="1"/>
-    <col min="7682" max="7682" width="10.625" style="22" customWidth="1"/>
-    <col min="7683" max="7683" width="31" style="22" customWidth="1"/>
-    <col min="7684" max="7684" width="6.75" style="22" customWidth="1"/>
-    <col min="7685" max="7685" width="29.5" style="22" customWidth="1"/>
-    <col min="7686" max="7686" width="9.875" style="22" customWidth="1"/>
-    <col min="7687" max="7936" width="8.25" style="22"/>
-    <col min="7937" max="7937" width="5.5" style="22" customWidth="1"/>
-    <col min="7938" max="7938" width="10.625" style="22" customWidth="1"/>
-    <col min="7939" max="7939" width="31" style="22" customWidth="1"/>
-    <col min="7940" max="7940" width="6.75" style="22" customWidth="1"/>
-    <col min="7941" max="7941" width="29.5" style="22" customWidth="1"/>
-    <col min="7942" max="7942" width="9.875" style="22" customWidth="1"/>
-    <col min="7943" max="8192" width="8.25" style="22"/>
-    <col min="8193" max="8193" width="5.5" style="22" customWidth="1"/>
-    <col min="8194" max="8194" width="10.625" style="22" customWidth="1"/>
-    <col min="8195" max="8195" width="31" style="22" customWidth="1"/>
-    <col min="8196" max="8196" width="6.75" style="22" customWidth="1"/>
-    <col min="8197" max="8197" width="29.5" style="22" customWidth="1"/>
-    <col min="8198" max="8198" width="9.875" style="22" customWidth="1"/>
-    <col min="8199" max="8448" width="8.25" style="22"/>
-    <col min="8449" max="8449" width="5.5" style="22" customWidth="1"/>
-    <col min="8450" max="8450" width="10.625" style="22" customWidth="1"/>
-    <col min="8451" max="8451" width="31" style="22" customWidth="1"/>
-    <col min="8452" max="8452" width="6.75" style="22" customWidth="1"/>
-    <col min="8453" max="8453" width="29.5" style="22" customWidth="1"/>
-    <col min="8454" max="8454" width="9.875" style="22" customWidth="1"/>
-    <col min="8455" max="8704" width="8.25" style="22"/>
-    <col min="8705" max="8705" width="5.5" style="22" customWidth="1"/>
-    <col min="8706" max="8706" width="10.625" style="22" customWidth="1"/>
-    <col min="8707" max="8707" width="31" style="22" customWidth="1"/>
-    <col min="8708" max="8708" width="6.75" style="22" customWidth="1"/>
-    <col min="8709" max="8709" width="29.5" style="22" customWidth="1"/>
-    <col min="8710" max="8710" width="9.875" style="22" customWidth="1"/>
-    <col min="8711" max="8960" width="8.25" style="22"/>
-    <col min="8961" max="8961" width="5.5" style="22" customWidth="1"/>
-    <col min="8962" max="8962" width="10.625" style="22" customWidth="1"/>
-    <col min="8963" max="8963" width="31" style="22" customWidth="1"/>
-    <col min="8964" max="8964" width="6.75" style="22" customWidth="1"/>
-    <col min="8965" max="8965" width="29.5" style="22" customWidth="1"/>
-    <col min="8966" max="8966" width="9.875" style="22" customWidth="1"/>
-    <col min="8967" max="9216" width="8.25" style="22"/>
-    <col min="9217" max="9217" width="5.5" style="22" customWidth="1"/>
-    <col min="9218" max="9218" width="10.625" style="22" customWidth="1"/>
-    <col min="9219" max="9219" width="31" style="22" customWidth="1"/>
-    <col min="9220" max="9220" width="6.75" style="22" customWidth="1"/>
-    <col min="9221" max="9221" width="29.5" style="22" customWidth="1"/>
-    <col min="9222" max="9222" width="9.875" style="22" customWidth="1"/>
-    <col min="9223" max="9472" width="8.25" style="22"/>
-    <col min="9473" max="9473" width="5.5" style="22" customWidth="1"/>
-    <col min="9474" max="9474" width="10.625" style="22" customWidth="1"/>
-    <col min="9475" max="9475" width="31" style="22" customWidth="1"/>
-    <col min="9476" max="9476" width="6.75" style="22" customWidth="1"/>
-    <col min="9477" max="9477" width="29.5" style="22" customWidth="1"/>
-    <col min="9478" max="9478" width="9.875" style="22" customWidth="1"/>
-    <col min="9479" max="9728" width="8.25" style="22"/>
-    <col min="9729" max="9729" width="5.5" style="22" customWidth="1"/>
-    <col min="9730" max="9730" width="10.625" style="22" customWidth="1"/>
-    <col min="9731" max="9731" width="31" style="22" customWidth="1"/>
-    <col min="9732" max="9732" width="6.75" style="22" customWidth="1"/>
-    <col min="9733" max="9733" width="29.5" style="22" customWidth="1"/>
-    <col min="9734" max="9734" width="9.875" style="22" customWidth="1"/>
-    <col min="9735" max="9984" width="8.25" style="22"/>
-    <col min="9985" max="9985" width="5.5" style="22" customWidth="1"/>
-    <col min="9986" max="9986" width="10.625" style="22" customWidth="1"/>
-    <col min="9987" max="9987" width="31" style="22" customWidth="1"/>
-    <col min="9988" max="9988" width="6.75" style="22" customWidth="1"/>
-    <col min="9989" max="9989" width="29.5" style="22" customWidth="1"/>
-    <col min="9990" max="9990" width="9.875" style="22" customWidth="1"/>
-    <col min="9991" max="10240" width="8.25" style="22"/>
-    <col min="10241" max="10241" width="5.5" style="22" customWidth="1"/>
-    <col min="10242" max="10242" width="10.625" style="22" customWidth="1"/>
-    <col min="10243" max="10243" width="31" style="22" customWidth="1"/>
-    <col min="10244" max="10244" width="6.75" style="22" customWidth="1"/>
-    <col min="10245" max="10245" width="29.5" style="22" customWidth="1"/>
-    <col min="10246" max="10246" width="9.875" style="22" customWidth="1"/>
-    <col min="10247" max="10496" width="8.25" style="22"/>
-    <col min="10497" max="10497" width="5.5" style="22" customWidth="1"/>
-    <col min="10498" max="10498" width="10.625" style="22" customWidth="1"/>
-    <col min="10499" max="10499" width="31" style="22" customWidth="1"/>
-    <col min="10500" max="10500" width="6.75" style="22" customWidth="1"/>
-    <col min="10501" max="10501" width="29.5" style="22" customWidth="1"/>
-    <col min="10502" max="10502" width="9.875" style="22" customWidth="1"/>
-    <col min="10503" max="10752" width="8.25" style="22"/>
-    <col min="10753" max="10753" width="5.5" style="22" customWidth="1"/>
-    <col min="10754" max="10754" width="10.625" style="22" customWidth="1"/>
-    <col min="10755" max="10755" width="31" style="22" customWidth="1"/>
-    <col min="10756" max="10756" width="6.75" style="22" customWidth="1"/>
-    <col min="10757" max="10757" width="29.5" style="22" customWidth="1"/>
-    <col min="10758" max="10758" width="9.875" style="22" customWidth="1"/>
-    <col min="10759" max="11008" width="8.25" style="22"/>
-    <col min="11009" max="11009" width="5.5" style="22" customWidth="1"/>
-    <col min="11010" max="11010" width="10.625" style="22" customWidth="1"/>
-    <col min="11011" max="11011" width="31" style="22" customWidth="1"/>
-    <col min="11012" max="11012" width="6.75" style="22" customWidth="1"/>
-    <col min="11013" max="11013" width="29.5" style="22" customWidth="1"/>
-    <col min="11014" max="11014" width="9.875" style="22" customWidth="1"/>
-    <col min="11015" max="11264" width="8.25" style="22"/>
-    <col min="11265" max="11265" width="5.5" style="22" customWidth="1"/>
-    <col min="11266" max="11266" width="10.625" style="22" customWidth="1"/>
-    <col min="11267" max="11267" width="31" style="22" customWidth="1"/>
-    <col min="11268" max="11268" width="6.75" style="22" customWidth="1"/>
-    <col min="11269" max="11269" width="29.5" style="22" customWidth="1"/>
-    <col min="11270" max="11270" width="9.875" style="22" customWidth="1"/>
-    <col min="11271" max="11520" width="8.25" style="22"/>
-    <col min="11521" max="11521" width="5.5" style="22" customWidth="1"/>
-    <col min="11522" max="11522" width="10.625" style="22" customWidth="1"/>
-    <col min="11523" max="11523" width="31" style="22" customWidth="1"/>
-    <col min="11524" max="11524" width="6.75" style="22" customWidth="1"/>
-    <col min="11525" max="11525" width="29.5" style="22" customWidth="1"/>
-    <col min="11526" max="11526" width="9.875" style="22" customWidth="1"/>
-    <col min="11527" max="11776" width="8.25" style="22"/>
-    <col min="11777" max="11777" width="5.5" style="22" customWidth="1"/>
-    <col min="11778" max="11778" width="10.625" style="22" customWidth="1"/>
-    <col min="11779" max="11779" width="31" style="22" customWidth="1"/>
-    <col min="11780" max="11780" width="6.75" style="22" customWidth="1"/>
-    <col min="11781" max="11781" width="29.5" style="22" customWidth="1"/>
-    <col min="11782" max="11782" width="9.875" style="22" customWidth="1"/>
-    <col min="11783" max="12032" width="8.25" style="22"/>
-    <col min="12033" max="12033" width="5.5" style="22" customWidth="1"/>
-    <col min="12034" max="12034" width="10.625" style="22" customWidth="1"/>
-    <col min="12035" max="12035" width="31" style="22" customWidth="1"/>
-    <col min="12036" max="12036" width="6.75" style="22" customWidth="1"/>
-    <col min="12037" max="12037" width="29.5" style="22" customWidth="1"/>
-    <col min="12038" max="12038" width="9.875" style="22" customWidth="1"/>
-    <col min="12039" max="12288" width="8.25" style="22"/>
-    <col min="12289" max="12289" width="5.5" style="22" customWidth="1"/>
-    <col min="12290" max="12290" width="10.625" style="22" customWidth="1"/>
-    <col min="12291" max="12291" width="31" style="22" customWidth="1"/>
-    <col min="12292" max="12292" width="6.75" style="22" customWidth="1"/>
-    <col min="12293" max="12293" width="29.5" style="22" customWidth="1"/>
-    <col min="12294" max="12294" width="9.875" style="22" customWidth="1"/>
-    <col min="12295" max="12544" width="8.25" style="22"/>
-    <col min="12545" max="12545" width="5.5" style="22" customWidth="1"/>
-    <col min="12546" max="12546" width="10.625" style="22" customWidth="1"/>
-    <col min="12547" max="12547" width="31" style="22" customWidth="1"/>
-    <col min="12548" max="12548" width="6.75" style="22" customWidth="1"/>
-    <col min="12549" max="12549" width="29.5" style="22" customWidth="1"/>
-    <col min="12550" max="12550" width="9.875" style="22" customWidth="1"/>
-    <col min="12551" max="12800" width="8.25" style="22"/>
-    <col min="12801" max="12801" width="5.5" style="22" customWidth="1"/>
-    <col min="12802" max="12802" width="10.625" style="22" customWidth="1"/>
-    <col min="12803" max="12803" width="31" style="22" customWidth="1"/>
-    <col min="12804" max="12804" width="6.75" style="22" customWidth="1"/>
-    <col min="12805" max="12805" width="29.5" style="22" customWidth="1"/>
-    <col min="12806" max="12806" width="9.875" style="22" customWidth="1"/>
-    <col min="12807" max="13056" width="8.25" style="22"/>
-    <col min="13057" max="13057" width="5.5" style="22" customWidth="1"/>
-    <col min="13058" max="13058" width="10.625" style="22" customWidth="1"/>
-    <col min="13059" max="13059" width="31" style="22" customWidth="1"/>
-    <col min="13060" max="13060" width="6.75" style="22" customWidth="1"/>
-    <col min="13061" max="13061" width="29.5" style="22" customWidth="1"/>
-    <col min="13062" max="13062" width="9.875" style="22" customWidth="1"/>
-    <col min="13063" max="13312" width="8.25" style="22"/>
-    <col min="13313" max="13313" width="5.5" style="22" customWidth="1"/>
-    <col min="13314" max="13314" width="10.625" style="22" customWidth="1"/>
-    <col min="13315" max="13315" width="31" style="22" customWidth="1"/>
-    <col min="13316" max="13316" width="6.75" style="22" customWidth="1"/>
-    <col min="13317" max="13317" width="29.5" style="22" customWidth="1"/>
-    <col min="13318" max="13318" width="9.875" style="22" customWidth="1"/>
-    <col min="13319" max="13568" width="8.25" style="22"/>
-    <col min="13569" max="13569" width="5.5" style="22" customWidth="1"/>
-    <col min="13570" max="13570" width="10.625" style="22" customWidth="1"/>
-    <col min="13571" max="13571" width="31" style="22" customWidth="1"/>
-    <col min="13572" max="13572" width="6.75" style="22" customWidth="1"/>
-    <col min="13573" max="13573" width="29.5" style="22" customWidth="1"/>
-    <col min="13574" max="13574" width="9.875" style="22" customWidth="1"/>
-    <col min="13575" max="13824" width="8.25" style="22"/>
-    <col min="13825" max="13825" width="5.5" style="22" customWidth="1"/>
-    <col min="13826" max="13826" width="10.625" style="22" customWidth="1"/>
-    <col min="13827" max="13827" width="31" style="22" customWidth="1"/>
-    <col min="13828" max="13828" width="6.75" style="22" customWidth="1"/>
-    <col min="13829" max="13829" width="29.5" style="22" customWidth="1"/>
-    <col min="13830" max="13830" width="9.875" style="22" customWidth="1"/>
-    <col min="13831" max="14080" width="8.25" style="22"/>
-    <col min="14081" max="14081" width="5.5" style="22" customWidth="1"/>
-    <col min="14082" max="14082" width="10.625" style="22" customWidth="1"/>
-    <col min="14083" max="14083" width="31" style="22" customWidth="1"/>
-    <col min="14084" max="14084" width="6.75" style="22" customWidth="1"/>
-    <col min="14085" max="14085" width="29.5" style="22" customWidth="1"/>
-    <col min="14086" max="14086" width="9.875" style="22" customWidth="1"/>
-    <col min="14087" max="14336" width="8.25" style="22"/>
-    <col min="14337" max="14337" width="5.5" style="22" customWidth="1"/>
-    <col min="14338" max="14338" width="10.625" style="22" customWidth="1"/>
-    <col min="14339" max="14339" width="31" style="22" customWidth="1"/>
-    <col min="14340" max="14340" width="6.75" style="22" customWidth="1"/>
-    <col min="14341" max="14341" width="29.5" style="22" customWidth="1"/>
-    <col min="14342" max="14342" width="9.875" style="22" customWidth="1"/>
-    <col min="14343" max="14592" width="8.25" style="22"/>
-    <col min="14593" max="14593" width="5.5" style="22" customWidth="1"/>
-    <col min="14594" max="14594" width="10.625" style="22" customWidth="1"/>
-    <col min="14595" max="14595" width="31" style="22" customWidth="1"/>
-    <col min="14596" max="14596" width="6.75" style="22" customWidth="1"/>
-    <col min="14597" max="14597" width="29.5" style="22" customWidth="1"/>
-    <col min="14598" max="14598" width="9.875" style="22" customWidth="1"/>
-    <col min="14599" max="14848" width="8.25" style="22"/>
-    <col min="14849" max="14849" width="5.5" style="22" customWidth="1"/>
-    <col min="14850" max="14850" width="10.625" style="22" customWidth="1"/>
-    <col min="14851" max="14851" width="31" style="22" customWidth="1"/>
-    <col min="14852" max="14852" width="6.75" style="22" customWidth="1"/>
-    <col min="14853" max="14853" width="29.5" style="22" customWidth="1"/>
-    <col min="14854" max="14854" width="9.875" style="22" customWidth="1"/>
-    <col min="14855" max="15104" width="8.25" style="22"/>
-    <col min="15105" max="15105" width="5.5" style="22" customWidth="1"/>
-    <col min="15106" max="15106" width="10.625" style="22" customWidth="1"/>
-    <col min="15107" max="15107" width="31" style="22" customWidth="1"/>
-    <col min="15108" max="15108" width="6.75" style="22" customWidth="1"/>
-    <col min="15109" max="15109" width="29.5" style="22" customWidth="1"/>
-    <col min="15110" max="15110" width="9.875" style="22" customWidth="1"/>
-    <col min="15111" max="15360" width="8.25" style="22"/>
-    <col min="15361" max="15361" width="5.5" style="22" customWidth="1"/>
-    <col min="15362" max="15362" width="10.625" style="22" customWidth="1"/>
-    <col min="15363" max="15363" width="31" style="22" customWidth="1"/>
-    <col min="15364" max="15364" width="6.75" style="22" customWidth="1"/>
-    <col min="15365" max="15365" width="29.5" style="22" customWidth="1"/>
-    <col min="15366" max="15366" width="9.875" style="22" customWidth="1"/>
-    <col min="15367" max="15616" width="8.25" style="22"/>
-    <col min="15617" max="15617" width="5.5" style="22" customWidth="1"/>
-    <col min="15618" max="15618" width="10.625" style="22" customWidth="1"/>
-    <col min="15619" max="15619" width="31" style="22" customWidth="1"/>
-    <col min="15620" max="15620" width="6.75" style="22" customWidth="1"/>
-    <col min="15621" max="15621" width="29.5" style="22" customWidth="1"/>
-    <col min="15622" max="15622" width="9.875" style="22" customWidth="1"/>
-    <col min="15623" max="15872" width="8.25" style="22"/>
-    <col min="15873" max="15873" width="5.5" style="22" customWidth="1"/>
-    <col min="15874" max="15874" width="10.625" style="22" customWidth="1"/>
-    <col min="15875" max="15875" width="31" style="22" customWidth="1"/>
-    <col min="15876" max="15876" width="6.75" style="22" customWidth="1"/>
-    <col min="15877" max="15877" width="29.5" style="22" customWidth="1"/>
-    <col min="15878" max="15878" width="9.875" style="22" customWidth="1"/>
-    <col min="15879" max="16128" width="8.25" style="22"/>
-    <col min="16129" max="16129" width="5.5" style="22" customWidth="1"/>
-    <col min="16130" max="16130" width="10.625" style="22" customWidth="1"/>
-    <col min="16131" max="16131" width="31" style="22" customWidth="1"/>
-    <col min="16132" max="16132" width="6.75" style="22" customWidth="1"/>
-    <col min="16133" max="16133" width="29.5" style="22" customWidth="1"/>
-    <col min="16134" max="16134" width="9.875" style="22" customWidth="1"/>
-    <col min="16135" max="16384" width="8.25" style="22"/>
+    <col min="1" max="1" width="5.5" style="21" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="31" style="21" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5" style="21" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="21" customWidth="1"/>
+    <col min="7" max="256" width="8.25" style="21"/>
+    <col min="257" max="257" width="5.5" style="21" customWidth="1"/>
+    <col min="258" max="258" width="10.625" style="21" customWidth="1"/>
+    <col min="259" max="259" width="31" style="21" customWidth="1"/>
+    <col min="260" max="260" width="6.75" style="21" customWidth="1"/>
+    <col min="261" max="261" width="29.5" style="21" customWidth="1"/>
+    <col min="262" max="262" width="9.875" style="21" customWidth="1"/>
+    <col min="263" max="512" width="8.25" style="21"/>
+    <col min="513" max="513" width="5.5" style="21" customWidth="1"/>
+    <col min="514" max="514" width="10.625" style="21" customWidth="1"/>
+    <col min="515" max="515" width="31" style="21" customWidth="1"/>
+    <col min="516" max="516" width="6.75" style="21" customWidth="1"/>
+    <col min="517" max="517" width="29.5" style="21" customWidth="1"/>
+    <col min="518" max="518" width="9.875" style="21" customWidth="1"/>
+    <col min="519" max="768" width="8.25" style="21"/>
+    <col min="769" max="769" width="5.5" style="21" customWidth="1"/>
+    <col min="770" max="770" width="10.625" style="21" customWidth="1"/>
+    <col min="771" max="771" width="31" style="21" customWidth="1"/>
+    <col min="772" max="772" width="6.75" style="21" customWidth="1"/>
+    <col min="773" max="773" width="29.5" style="21" customWidth="1"/>
+    <col min="774" max="774" width="9.875" style="21" customWidth="1"/>
+    <col min="775" max="1024" width="8.25" style="21"/>
+    <col min="1025" max="1025" width="5.5" style="21" customWidth="1"/>
+    <col min="1026" max="1026" width="10.625" style="21" customWidth="1"/>
+    <col min="1027" max="1027" width="31" style="21" customWidth="1"/>
+    <col min="1028" max="1028" width="6.75" style="21" customWidth="1"/>
+    <col min="1029" max="1029" width="29.5" style="21" customWidth="1"/>
+    <col min="1030" max="1030" width="9.875" style="21" customWidth="1"/>
+    <col min="1031" max="1280" width="8.25" style="21"/>
+    <col min="1281" max="1281" width="5.5" style="21" customWidth="1"/>
+    <col min="1282" max="1282" width="10.625" style="21" customWidth="1"/>
+    <col min="1283" max="1283" width="31" style="21" customWidth="1"/>
+    <col min="1284" max="1284" width="6.75" style="21" customWidth="1"/>
+    <col min="1285" max="1285" width="29.5" style="21" customWidth="1"/>
+    <col min="1286" max="1286" width="9.875" style="21" customWidth="1"/>
+    <col min="1287" max="1536" width="8.25" style="21"/>
+    <col min="1537" max="1537" width="5.5" style="21" customWidth="1"/>
+    <col min="1538" max="1538" width="10.625" style="21" customWidth="1"/>
+    <col min="1539" max="1539" width="31" style="21" customWidth="1"/>
+    <col min="1540" max="1540" width="6.75" style="21" customWidth="1"/>
+    <col min="1541" max="1541" width="29.5" style="21" customWidth="1"/>
+    <col min="1542" max="1542" width="9.875" style="21" customWidth="1"/>
+    <col min="1543" max="1792" width="8.25" style="21"/>
+    <col min="1793" max="1793" width="5.5" style="21" customWidth="1"/>
+    <col min="1794" max="1794" width="10.625" style="21" customWidth="1"/>
+    <col min="1795" max="1795" width="31" style="21" customWidth="1"/>
+    <col min="1796" max="1796" width="6.75" style="21" customWidth="1"/>
+    <col min="1797" max="1797" width="29.5" style="21" customWidth="1"/>
+    <col min="1798" max="1798" width="9.875" style="21" customWidth="1"/>
+    <col min="1799" max="2048" width="8.25" style="21"/>
+    <col min="2049" max="2049" width="5.5" style="21" customWidth="1"/>
+    <col min="2050" max="2050" width="10.625" style="21" customWidth="1"/>
+    <col min="2051" max="2051" width="31" style="21" customWidth="1"/>
+    <col min="2052" max="2052" width="6.75" style="21" customWidth="1"/>
+    <col min="2053" max="2053" width="29.5" style="21" customWidth="1"/>
+    <col min="2054" max="2054" width="9.875" style="21" customWidth="1"/>
+    <col min="2055" max="2304" width="8.25" style="21"/>
+    <col min="2305" max="2305" width="5.5" style="21" customWidth="1"/>
+    <col min="2306" max="2306" width="10.625" style="21" customWidth="1"/>
+    <col min="2307" max="2307" width="31" style="21" customWidth="1"/>
+    <col min="2308" max="2308" width="6.75" style="21" customWidth="1"/>
+    <col min="2309" max="2309" width="29.5" style="21" customWidth="1"/>
+    <col min="2310" max="2310" width="9.875" style="21" customWidth="1"/>
+    <col min="2311" max="2560" width="8.25" style="21"/>
+    <col min="2561" max="2561" width="5.5" style="21" customWidth="1"/>
+    <col min="2562" max="2562" width="10.625" style="21" customWidth="1"/>
+    <col min="2563" max="2563" width="31" style="21" customWidth="1"/>
+    <col min="2564" max="2564" width="6.75" style="21" customWidth="1"/>
+    <col min="2565" max="2565" width="29.5" style="21" customWidth="1"/>
+    <col min="2566" max="2566" width="9.875" style="21" customWidth="1"/>
+    <col min="2567" max="2816" width="8.25" style="21"/>
+    <col min="2817" max="2817" width="5.5" style="21" customWidth="1"/>
+    <col min="2818" max="2818" width="10.625" style="21" customWidth="1"/>
+    <col min="2819" max="2819" width="31" style="21" customWidth="1"/>
+    <col min="2820" max="2820" width="6.75" style="21" customWidth="1"/>
+    <col min="2821" max="2821" width="29.5" style="21" customWidth="1"/>
+    <col min="2822" max="2822" width="9.875" style="21" customWidth="1"/>
+    <col min="2823" max="3072" width="8.25" style="21"/>
+    <col min="3073" max="3073" width="5.5" style="21" customWidth="1"/>
+    <col min="3074" max="3074" width="10.625" style="21" customWidth="1"/>
+    <col min="3075" max="3075" width="31" style="21" customWidth="1"/>
+    <col min="3076" max="3076" width="6.75" style="21" customWidth="1"/>
+    <col min="3077" max="3077" width="29.5" style="21" customWidth="1"/>
+    <col min="3078" max="3078" width="9.875" style="21" customWidth="1"/>
+    <col min="3079" max="3328" width="8.25" style="21"/>
+    <col min="3329" max="3329" width="5.5" style="21" customWidth="1"/>
+    <col min="3330" max="3330" width="10.625" style="21" customWidth="1"/>
+    <col min="3331" max="3331" width="31" style="21" customWidth="1"/>
+    <col min="3332" max="3332" width="6.75" style="21" customWidth="1"/>
+    <col min="3333" max="3333" width="29.5" style="21" customWidth="1"/>
+    <col min="3334" max="3334" width="9.875" style="21" customWidth="1"/>
+    <col min="3335" max="3584" width="8.25" style="21"/>
+    <col min="3585" max="3585" width="5.5" style="21" customWidth="1"/>
+    <col min="3586" max="3586" width="10.625" style="21" customWidth="1"/>
+    <col min="3587" max="3587" width="31" style="21" customWidth="1"/>
+    <col min="3588" max="3588" width="6.75" style="21" customWidth="1"/>
+    <col min="3589" max="3589" width="29.5" style="21" customWidth="1"/>
+    <col min="3590" max="3590" width="9.875" style="21" customWidth="1"/>
+    <col min="3591" max="3840" width="8.25" style="21"/>
+    <col min="3841" max="3841" width="5.5" style="21" customWidth="1"/>
+    <col min="3842" max="3842" width="10.625" style="21" customWidth="1"/>
+    <col min="3843" max="3843" width="31" style="21" customWidth="1"/>
+    <col min="3844" max="3844" width="6.75" style="21" customWidth="1"/>
+    <col min="3845" max="3845" width="29.5" style="21" customWidth="1"/>
+    <col min="3846" max="3846" width="9.875" style="21" customWidth="1"/>
+    <col min="3847" max="4096" width="8.25" style="21"/>
+    <col min="4097" max="4097" width="5.5" style="21" customWidth="1"/>
+    <col min="4098" max="4098" width="10.625" style="21" customWidth="1"/>
+    <col min="4099" max="4099" width="31" style="21" customWidth="1"/>
+    <col min="4100" max="4100" width="6.75" style="21" customWidth="1"/>
+    <col min="4101" max="4101" width="29.5" style="21" customWidth="1"/>
+    <col min="4102" max="4102" width="9.875" style="21" customWidth="1"/>
+    <col min="4103" max="4352" width="8.25" style="21"/>
+    <col min="4353" max="4353" width="5.5" style="21" customWidth="1"/>
+    <col min="4354" max="4354" width="10.625" style="21" customWidth="1"/>
+    <col min="4355" max="4355" width="31" style="21" customWidth="1"/>
+    <col min="4356" max="4356" width="6.75" style="21" customWidth="1"/>
+    <col min="4357" max="4357" width="29.5" style="21" customWidth="1"/>
+    <col min="4358" max="4358" width="9.875" style="21" customWidth="1"/>
+    <col min="4359" max="4608" width="8.25" style="21"/>
+    <col min="4609" max="4609" width="5.5" style="21" customWidth="1"/>
+    <col min="4610" max="4610" width="10.625" style="21" customWidth="1"/>
+    <col min="4611" max="4611" width="31" style="21" customWidth="1"/>
+    <col min="4612" max="4612" width="6.75" style="21" customWidth="1"/>
+    <col min="4613" max="4613" width="29.5" style="21" customWidth="1"/>
+    <col min="4614" max="4614" width="9.875" style="21" customWidth="1"/>
+    <col min="4615" max="4864" width="8.25" style="21"/>
+    <col min="4865" max="4865" width="5.5" style="21" customWidth="1"/>
+    <col min="4866" max="4866" width="10.625" style="21" customWidth="1"/>
+    <col min="4867" max="4867" width="31" style="21" customWidth="1"/>
+    <col min="4868" max="4868" width="6.75" style="21" customWidth="1"/>
+    <col min="4869" max="4869" width="29.5" style="21" customWidth="1"/>
+    <col min="4870" max="4870" width="9.875" style="21" customWidth="1"/>
+    <col min="4871" max="5120" width="8.25" style="21"/>
+    <col min="5121" max="5121" width="5.5" style="21" customWidth="1"/>
+    <col min="5122" max="5122" width="10.625" style="21" customWidth="1"/>
+    <col min="5123" max="5123" width="31" style="21" customWidth="1"/>
+    <col min="5124" max="5124" width="6.75" style="21" customWidth="1"/>
+    <col min="5125" max="5125" width="29.5" style="21" customWidth="1"/>
+    <col min="5126" max="5126" width="9.875" style="21" customWidth="1"/>
+    <col min="5127" max="5376" width="8.25" style="21"/>
+    <col min="5377" max="5377" width="5.5" style="21" customWidth="1"/>
+    <col min="5378" max="5378" width="10.625" style="21" customWidth="1"/>
+    <col min="5379" max="5379" width="31" style="21" customWidth="1"/>
+    <col min="5380" max="5380" width="6.75" style="21" customWidth="1"/>
+    <col min="5381" max="5381" width="29.5" style="21" customWidth="1"/>
+    <col min="5382" max="5382" width="9.875" style="21" customWidth="1"/>
+    <col min="5383" max="5632" width="8.25" style="21"/>
+    <col min="5633" max="5633" width="5.5" style="21" customWidth="1"/>
+    <col min="5634" max="5634" width="10.625" style="21" customWidth="1"/>
+    <col min="5635" max="5635" width="31" style="21" customWidth="1"/>
+    <col min="5636" max="5636" width="6.75" style="21" customWidth="1"/>
+    <col min="5637" max="5637" width="29.5" style="21" customWidth="1"/>
+    <col min="5638" max="5638" width="9.875" style="21" customWidth="1"/>
+    <col min="5639" max="5888" width="8.25" style="21"/>
+    <col min="5889" max="5889" width="5.5" style="21" customWidth="1"/>
+    <col min="5890" max="5890" width="10.625" style="21" customWidth="1"/>
+    <col min="5891" max="5891" width="31" style="21" customWidth="1"/>
+    <col min="5892" max="5892" width="6.75" style="21" customWidth="1"/>
+    <col min="5893" max="5893" width="29.5" style="21" customWidth="1"/>
+    <col min="5894" max="5894" width="9.875" style="21" customWidth="1"/>
+    <col min="5895" max="6144" width="8.25" style="21"/>
+    <col min="6145" max="6145" width="5.5" style="21" customWidth="1"/>
+    <col min="6146" max="6146" width="10.625" style="21" customWidth="1"/>
+    <col min="6147" max="6147" width="31" style="21" customWidth="1"/>
+    <col min="6148" max="6148" width="6.75" style="21" customWidth="1"/>
+    <col min="6149" max="6149" width="29.5" style="21" customWidth="1"/>
+    <col min="6150" max="6150" width="9.875" style="21" customWidth="1"/>
+    <col min="6151" max="6400" width="8.25" style="21"/>
+    <col min="6401" max="6401" width="5.5" style="21" customWidth="1"/>
+    <col min="6402" max="6402" width="10.625" style="21" customWidth="1"/>
+    <col min="6403" max="6403" width="31" style="21" customWidth="1"/>
+    <col min="6404" max="6404" width="6.75" style="21" customWidth="1"/>
+    <col min="6405" max="6405" width="29.5" style="21" customWidth="1"/>
+    <col min="6406" max="6406" width="9.875" style="21" customWidth="1"/>
+    <col min="6407" max="6656" width="8.25" style="21"/>
+    <col min="6657" max="6657" width="5.5" style="21" customWidth="1"/>
+    <col min="6658" max="6658" width="10.625" style="21" customWidth="1"/>
+    <col min="6659" max="6659" width="31" style="21" customWidth="1"/>
+    <col min="6660" max="6660" width="6.75" style="21" customWidth="1"/>
+    <col min="6661" max="6661" width="29.5" style="21" customWidth="1"/>
+    <col min="6662" max="6662" width="9.875" style="21" customWidth="1"/>
+    <col min="6663" max="6912" width="8.25" style="21"/>
+    <col min="6913" max="6913" width="5.5" style="21" customWidth="1"/>
+    <col min="6914" max="6914" width="10.625" style="21" customWidth="1"/>
+    <col min="6915" max="6915" width="31" style="21" customWidth="1"/>
+    <col min="6916" max="6916" width="6.75" style="21" customWidth="1"/>
+    <col min="6917" max="6917" width="29.5" style="21" customWidth="1"/>
+    <col min="6918" max="6918" width="9.875" style="21" customWidth="1"/>
+    <col min="6919" max="7168" width="8.25" style="21"/>
+    <col min="7169" max="7169" width="5.5" style="21" customWidth="1"/>
+    <col min="7170" max="7170" width="10.625" style="21" customWidth="1"/>
+    <col min="7171" max="7171" width="31" style="21" customWidth="1"/>
+    <col min="7172" max="7172" width="6.75" style="21" customWidth="1"/>
+    <col min="7173" max="7173" width="29.5" style="21" customWidth="1"/>
+    <col min="7174" max="7174" width="9.875" style="21" customWidth="1"/>
+    <col min="7175" max="7424" width="8.25" style="21"/>
+    <col min="7425" max="7425" width="5.5" style="21" customWidth="1"/>
+    <col min="7426" max="7426" width="10.625" style="21" customWidth="1"/>
+    <col min="7427" max="7427" width="31" style="21" customWidth="1"/>
+    <col min="7428" max="7428" width="6.75" style="21" customWidth="1"/>
+    <col min="7429" max="7429" width="29.5" style="21" customWidth="1"/>
+    <col min="7430" max="7430" width="9.875" style="21" customWidth="1"/>
+    <col min="7431" max="7680" width="8.25" style="21"/>
+    <col min="7681" max="7681" width="5.5" style="21" customWidth="1"/>
+    <col min="7682" max="7682" width="10.625" style="21" customWidth="1"/>
+    <col min="7683" max="7683" width="31" style="21" customWidth="1"/>
+    <col min="7684" max="7684" width="6.75" style="21" customWidth="1"/>
+    <col min="7685" max="7685" width="29.5" style="21" customWidth="1"/>
+    <col min="7686" max="7686" width="9.875" style="21" customWidth="1"/>
+    <col min="7687" max="7936" width="8.25" style="21"/>
+    <col min="7937" max="7937" width="5.5" style="21" customWidth="1"/>
+    <col min="7938" max="7938" width="10.625" style="21" customWidth="1"/>
+    <col min="7939" max="7939" width="31" style="21" customWidth="1"/>
+    <col min="7940" max="7940" width="6.75" style="21" customWidth="1"/>
+    <col min="7941" max="7941" width="29.5" style="21" customWidth="1"/>
+    <col min="7942" max="7942" width="9.875" style="21" customWidth="1"/>
+    <col min="7943" max="8192" width="8.25" style="21"/>
+    <col min="8193" max="8193" width="5.5" style="21" customWidth="1"/>
+    <col min="8194" max="8194" width="10.625" style="21" customWidth="1"/>
+    <col min="8195" max="8195" width="31" style="21" customWidth="1"/>
+    <col min="8196" max="8196" width="6.75" style="21" customWidth="1"/>
+    <col min="8197" max="8197" width="29.5" style="21" customWidth="1"/>
+    <col min="8198" max="8198" width="9.875" style="21" customWidth="1"/>
+    <col min="8199" max="8448" width="8.25" style="21"/>
+    <col min="8449" max="8449" width="5.5" style="21" customWidth="1"/>
+    <col min="8450" max="8450" width="10.625" style="21" customWidth="1"/>
+    <col min="8451" max="8451" width="31" style="21" customWidth="1"/>
+    <col min="8452" max="8452" width="6.75" style="21" customWidth="1"/>
+    <col min="8453" max="8453" width="29.5" style="21" customWidth="1"/>
+    <col min="8454" max="8454" width="9.875" style="21" customWidth="1"/>
+    <col min="8455" max="8704" width="8.25" style="21"/>
+    <col min="8705" max="8705" width="5.5" style="21" customWidth="1"/>
+    <col min="8706" max="8706" width="10.625" style="21" customWidth="1"/>
+    <col min="8707" max="8707" width="31" style="21" customWidth="1"/>
+    <col min="8708" max="8708" width="6.75" style="21" customWidth="1"/>
+    <col min="8709" max="8709" width="29.5" style="21" customWidth="1"/>
+    <col min="8710" max="8710" width="9.875" style="21" customWidth="1"/>
+    <col min="8711" max="8960" width="8.25" style="21"/>
+    <col min="8961" max="8961" width="5.5" style="21" customWidth="1"/>
+    <col min="8962" max="8962" width="10.625" style="21" customWidth="1"/>
+    <col min="8963" max="8963" width="31" style="21" customWidth="1"/>
+    <col min="8964" max="8964" width="6.75" style="21" customWidth="1"/>
+    <col min="8965" max="8965" width="29.5" style="21" customWidth="1"/>
+    <col min="8966" max="8966" width="9.875" style="21" customWidth="1"/>
+    <col min="8967" max="9216" width="8.25" style="21"/>
+    <col min="9217" max="9217" width="5.5" style="21" customWidth="1"/>
+    <col min="9218" max="9218" width="10.625" style="21" customWidth="1"/>
+    <col min="9219" max="9219" width="31" style="21" customWidth="1"/>
+    <col min="9220" max="9220" width="6.75" style="21" customWidth="1"/>
+    <col min="9221" max="9221" width="29.5" style="21" customWidth="1"/>
+    <col min="9222" max="9222" width="9.875" style="21" customWidth="1"/>
+    <col min="9223" max="9472" width="8.25" style="21"/>
+    <col min="9473" max="9473" width="5.5" style="21" customWidth="1"/>
+    <col min="9474" max="9474" width="10.625" style="21" customWidth="1"/>
+    <col min="9475" max="9475" width="31" style="21" customWidth="1"/>
+    <col min="9476" max="9476" width="6.75" style="21" customWidth="1"/>
+    <col min="9477" max="9477" width="29.5" style="21" customWidth="1"/>
+    <col min="9478" max="9478" width="9.875" style="21" customWidth="1"/>
+    <col min="9479" max="9728" width="8.25" style="21"/>
+    <col min="9729" max="9729" width="5.5" style="21" customWidth="1"/>
+    <col min="9730" max="9730" width="10.625" style="21" customWidth="1"/>
+    <col min="9731" max="9731" width="31" style="21" customWidth="1"/>
+    <col min="9732" max="9732" width="6.75" style="21" customWidth="1"/>
+    <col min="9733" max="9733" width="29.5" style="21" customWidth="1"/>
+    <col min="9734" max="9734" width="9.875" style="21" customWidth="1"/>
+    <col min="9735" max="9984" width="8.25" style="21"/>
+    <col min="9985" max="9985" width="5.5" style="21" customWidth="1"/>
+    <col min="9986" max="9986" width="10.625" style="21" customWidth="1"/>
+    <col min="9987" max="9987" width="31" style="21" customWidth="1"/>
+    <col min="9988" max="9988" width="6.75" style="21" customWidth="1"/>
+    <col min="9989" max="9989" width="29.5" style="21" customWidth="1"/>
+    <col min="9990" max="9990" width="9.875" style="21" customWidth="1"/>
+    <col min="9991" max="10240" width="8.25" style="21"/>
+    <col min="10241" max="10241" width="5.5" style="21" customWidth="1"/>
+    <col min="10242" max="10242" width="10.625" style="21" customWidth="1"/>
+    <col min="10243" max="10243" width="31" style="21" customWidth="1"/>
+    <col min="10244" max="10244" width="6.75" style="21" customWidth="1"/>
+    <col min="10245" max="10245" width="29.5" style="21" customWidth="1"/>
+    <col min="10246" max="10246" width="9.875" style="21" customWidth="1"/>
+    <col min="10247" max="10496" width="8.25" style="21"/>
+    <col min="10497" max="10497" width="5.5" style="21" customWidth="1"/>
+    <col min="10498" max="10498" width="10.625" style="21" customWidth="1"/>
+    <col min="10499" max="10499" width="31" style="21" customWidth="1"/>
+    <col min="10500" max="10500" width="6.75" style="21" customWidth="1"/>
+    <col min="10501" max="10501" width="29.5" style="21" customWidth="1"/>
+    <col min="10502" max="10502" width="9.875" style="21" customWidth="1"/>
+    <col min="10503" max="10752" width="8.25" style="21"/>
+    <col min="10753" max="10753" width="5.5" style="21" customWidth="1"/>
+    <col min="10754" max="10754" width="10.625" style="21" customWidth="1"/>
+    <col min="10755" max="10755" width="31" style="21" customWidth="1"/>
+    <col min="10756" max="10756" width="6.75" style="21" customWidth="1"/>
+    <col min="10757" max="10757" width="29.5" style="21" customWidth="1"/>
+    <col min="10758" max="10758" width="9.875" style="21" customWidth="1"/>
+    <col min="10759" max="11008" width="8.25" style="21"/>
+    <col min="11009" max="11009" width="5.5" style="21" customWidth="1"/>
+    <col min="11010" max="11010" width="10.625" style="21" customWidth="1"/>
+    <col min="11011" max="11011" width="31" style="21" customWidth="1"/>
+    <col min="11012" max="11012" width="6.75" style="21" customWidth="1"/>
+    <col min="11013" max="11013" width="29.5" style="21" customWidth="1"/>
+    <col min="11014" max="11014" width="9.875" style="21" customWidth="1"/>
+    <col min="11015" max="11264" width="8.25" style="21"/>
+    <col min="11265" max="11265" width="5.5" style="21" customWidth="1"/>
+    <col min="11266" max="11266" width="10.625" style="21" customWidth="1"/>
+    <col min="11267" max="11267" width="31" style="21" customWidth="1"/>
+    <col min="11268" max="11268" width="6.75" style="21" customWidth="1"/>
+    <col min="11269" max="11269" width="29.5" style="21" customWidth="1"/>
+    <col min="11270" max="11270" width="9.875" style="21" customWidth="1"/>
+    <col min="11271" max="11520" width="8.25" style="21"/>
+    <col min="11521" max="11521" width="5.5" style="21" customWidth="1"/>
+    <col min="11522" max="11522" width="10.625" style="21" customWidth="1"/>
+    <col min="11523" max="11523" width="31" style="21" customWidth="1"/>
+    <col min="11524" max="11524" width="6.75" style="21" customWidth="1"/>
+    <col min="11525" max="11525" width="29.5" style="21" customWidth="1"/>
+    <col min="11526" max="11526" width="9.875" style="21" customWidth="1"/>
+    <col min="11527" max="11776" width="8.25" style="21"/>
+    <col min="11777" max="11777" width="5.5" style="21" customWidth="1"/>
+    <col min="11778" max="11778" width="10.625" style="21" customWidth="1"/>
+    <col min="11779" max="11779" width="31" style="21" customWidth="1"/>
+    <col min="11780" max="11780" width="6.75" style="21" customWidth="1"/>
+    <col min="11781" max="11781" width="29.5" style="21" customWidth="1"/>
+    <col min="11782" max="11782" width="9.875" style="21" customWidth="1"/>
+    <col min="11783" max="12032" width="8.25" style="21"/>
+    <col min="12033" max="12033" width="5.5" style="21" customWidth="1"/>
+    <col min="12034" max="12034" width="10.625" style="21" customWidth="1"/>
+    <col min="12035" max="12035" width="31" style="21" customWidth="1"/>
+    <col min="12036" max="12036" width="6.75" style="21" customWidth="1"/>
+    <col min="12037" max="12037" width="29.5" style="21" customWidth="1"/>
+    <col min="12038" max="12038" width="9.875" style="21" customWidth="1"/>
+    <col min="12039" max="12288" width="8.25" style="21"/>
+    <col min="12289" max="12289" width="5.5" style="21" customWidth="1"/>
+    <col min="12290" max="12290" width="10.625" style="21" customWidth="1"/>
+    <col min="12291" max="12291" width="31" style="21" customWidth="1"/>
+    <col min="12292" max="12292" width="6.75" style="21" customWidth="1"/>
+    <col min="12293" max="12293" width="29.5" style="21" customWidth="1"/>
+    <col min="12294" max="12294" width="9.875" style="21" customWidth="1"/>
+    <col min="12295" max="12544" width="8.25" style="21"/>
+    <col min="12545" max="12545" width="5.5" style="21" customWidth="1"/>
+    <col min="12546" max="12546" width="10.625" style="21" customWidth="1"/>
+    <col min="12547" max="12547" width="31" style="21" customWidth="1"/>
+    <col min="12548" max="12548" width="6.75" style="21" customWidth="1"/>
+    <col min="12549" max="12549" width="29.5" style="21" customWidth="1"/>
+    <col min="12550" max="12550" width="9.875" style="21" customWidth="1"/>
+    <col min="12551" max="12800" width="8.25" style="21"/>
+    <col min="12801" max="12801" width="5.5" style="21" customWidth="1"/>
+    <col min="12802" max="12802" width="10.625" style="21" customWidth="1"/>
+    <col min="12803" max="12803" width="31" style="21" customWidth="1"/>
+    <col min="12804" max="12804" width="6.75" style="21" customWidth="1"/>
+    <col min="12805" max="12805" width="29.5" style="21" customWidth="1"/>
+    <col min="12806" max="12806" width="9.875" style="21" customWidth="1"/>
+    <col min="12807" max="13056" width="8.25" style="21"/>
+    <col min="13057" max="13057" width="5.5" style="21" customWidth="1"/>
+    <col min="13058" max="13058" width="10.625" style="21" customWidth="1"/>
+    <col min="13059" max="13059" width="31" style="21" customWidth="1"/>
+    <col min="13060" max="13060" width="6.75" style="21" customWidth="1"/>
+    <col min="13061" max="13061" width="29.5" style="21" customWidth="1"/>
+    <col min="13062" max="13062" width="9.875" style="21" customWidth="1"/>
+    <col min="13063" max="13312" width="8.25" style="21"/>
+    <col min="13313" max="13313" width="5.5" style="21" customWidth="1"/>
+    <col min="13314" max="13314" width="10.625" style="21" customWidth="1"/>
+    <col min="13315" max="13315" width="31" style="21" customWidth="1"/>
+    <col min="13316" max="13316" width="6.75" style="21" customWidth="1"/>
+    <col min="13317" max="13317" width="29.5" style="21" customWidth="1"/>
+    <col min="13318" max="13318" width="9.875" style="21" customWidth="1"/>
+    <col min="13319" max="13568" width="8.25" style="21"/>
+    <col min="13569" max="13569" width="5.5" style="21" customWidth="1"/>
+    <col min="13570" max="13570" width="10.625" style="21" customWidth="1"/>
+    <col min="13571" max="13571" width="31" style="21" customWidth="1"/>
+    <col min="13572" max="13572" width="6.75" style="21" customWidth="1"/>
+    <col min="13573" max="13573" width="29.5" style="21" customWidth="1"/>
+    <col min="13574" max="13574" width="9.875" style="21" customWidth="1"/>
+    <col min="13575" max="13824" width="8.25" style="21"/>
+    <col min="13825" max="13825" width="5.5" style="21" customWidth="1"/>
+    <col min="13826" max="13826" width="10.625" style="21" customWidth="1"/>
+    <col min="13827" max="13827" width="31" style="21" customWidth="1"/>
+    <col min="13828" max="13828" width="6.75" style="21" customWidth="1"/>
+    <col min="13829" max="13829" width="29.5" style="21" customWidth="1"/>
+    <col min="13830" max="13830" width="9.875" style="21" customWidth="1"/>
+    <col min="13831" max="14080" width="8.25" style="21"/>
+    <col min="14081" max="14081" width="5.5" style="21" customWidth="1"/>
+    <col min="14082" max="14082" width="10.625" style="21" customWidth="1"/>
+    <col min="14083" max="14083" width="31" style="21" customWidth="1"/>
+    <col min="14084" max="14084" width="6.75" style="21" customWidth="1"/>
+    <col min="14085" max="14085" width="29.5" style="21" customWidth="1"/>
+    <col min="14086" max="14086" width="9.875" style="21" customWidth="1"/>
+    <col min="14087" max="14336" width="8.25" style="21"/>
+    <col min="14337" max="14337" width="5.5" style="21" customWidth="1"/>
+    <col min="14338" max="14338" width="10.625" style="21" customWidth="1"/>
+    <col min="14339" max="14339" width="31" style="21" customWidth="1"/>
+    <col min="14340" max="14340" width="6.75" style="21" customWidth="1"/>
+    <col min="14341" max="14341" width="29.5" style="21" customWidth="1"/>
+    <col min="14342" max="14342" width="9.875" style="21" customWidth="1"/>
+    <col min="14343" max="14592" width="8.25" style="21"/>
+    <col min="14593" max="14593" width="5.5" style="21" customWidth="1"/>
+    <col min="14594" max="14594" width="10.625" style="21" customWidth="1"/>
+    <col min="14595" max="14595" width="31" style="21" customWidth="1"/>
+    <col min="14596" max="14596" width="6.75" style="21" customWidth="1"/>
+    <col min="14597" max="14597" width="29.5" style="21" customWidth="1"/>
+    <col min="14598" max="14598" width="9.875" style="21" customWidth="1"/>
+    <col min="14599" max="14848" width="8.25" style="21"/>
+    <col min="14849" max="14849" width="5.5" style="21" customWidth="1"/>
+    <col min="14850" max="14850" width="10.625" style="21" customWidth="1"/>
+    <col min="14851" max="14851" width="31" style="21" customWidth="1"/>
+    <col min="14852" max="14852" width="6.75" style="21" customWidth="1"/>
+    <col min="14853" max="14853" width="29.5" style="21" customWidth="1"/>
+    <col min="14854" max="14854" width="9.875" style="21" customWidth="1"/>
+    <col min="14855" max="15104" width="8.25" style="21"/>
+    <col min="15105" max="15105" width="5.5" style="21" customWidth="1"/>
+    <col min="15106" max="15106" width="10.625" style="21" customWidth="1"/>
+    <col min="15107" max="15107" width="31" style="21" customWidth="1"/>
+    <col min="15108" max="15108" width="6.75" style="21" customWidth="1"/>
+    <col min="15109" max="15109" width="29.5" style="21" customWidth="1"/>
+    <col min="15110" max="15110" width="9.875" style="21" customWidth="1"/>
+    <col min="15111" max="15360" width="8.25" style="21"/>
+    <col min="15361" max="15361" width="5.5" style="21" customWidth="1"/>
+    <col min="15362" max="15362" width="10.625" style="21" customWidth="1"/>
+    <col min="15363" max="15363" width="31" style="21" customWidth="1"/>
+    <col min="15364" max="15364" width="6.75" style="21" customWidth="1"/>
+    <col min="15365" max="15365" width="29.5" style="21" customWidth="1"/>
+    <col min="15366" max="15366" width="9.875" style="21" customWidth="1"/>
+    <col min="15367" max="15616" width="8.25" style="21"/>
+    <col min="15617" max="15617" width="5.5" style="21" customWidth="1"/>
+    <col min="15618" max="15618" width="10.625" style="21" customWidth="1"/>
+    <col min="15619" max="15619" width="31" style="21" customWidth="1"/>
+    <col min="15620" max="15620" width="6.75" style="21" customWidth="1"/>
+    <col min="15621" max="15621" width="29.5" style="21" customWidth="1"/>
+    <col min="15622" max="15622" width="9.875" style="21" customWidth="1"/>
+    <col min="15623" max="15872" width="8.25" style="21"/>
+    <col min="15873" max="15873" width="5.5" style="21" customWidth="1"/>
+    <col min="15874" max="15874" width="10.625" style="21" customWidth="1"/>
+    <col min="15875" max="15875" width="31" style="21" customWidth="1"/>
+    <col min="15876" max="15876" width="6.75" style="21" customWidth="1"/>
+    <col min="15877" max="15877" width="29.5" style="21" customWidth="1"/>
+    <col min="15878" max="15878" width="9.875" style="21" customWidth="1"/>
+    <col min="15879" max="16128" width="8.25" style="21"/>
+    <col min="16129" max="16129" width="5.5" style="21" customWidth="1"/>
+    <col min="16130" max="16130" width="10.625" style="21" customWidth="1"/>
+    <col min="16131" max="16131" width="31" style="21" customWidth="1"/>
+    <col min="16132" max="16132" width="6.75" style="21" customWidth="1"/>
+    <col min="16133" max="16133" width="29.5" style="21" customWidth="1"/>
+    <col min="16134" max="16134" width="9.875" style="21" customWidth="1"/>
+    <col min="16135" max="16384" width="8.25" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="46" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:5" s="48" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-    </row>
-    <row r="3" spans="2:5" s="48" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="99" t="s">
+    <row r="1" spans="2:5" s="45" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:5" s="47" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+    </row>
+    <row r="3" spans="2:5" s="47" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="101" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="99"/>
-    </row>
-    <row r="4" spans="2:5" s="48" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-    </row>
-    <row r="5" spans="2:5" s="48" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="100" t="s">
+      <c r="C3" s="101"/>
+    </row>
+    <row r="4" spans="2:5" s="47" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+    </row>
+    <row r="5" spans="2:5" s="47" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="102" t="s">
         <v>206</v>
       </c>
-      <c r="C5" s="100"/>
+      <c r="C5" s="102"/>
     </row>
     <row r="6" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="49"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="51" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="53">
+      <c r="B8" s="52">
         <v>44848</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="55" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="53">
+      <c r="B9" s="52">
         <v>44903</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="53" t="s">
+        <v>305</v>
+      </c>
+      <c r="D9" s="54" t="s">
         <v>306</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="E9" s="55" t="s">
         <v>307</v>
       </c>
-      <c r="E9" s="56" t="s">
-        <v>308</v>
-      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="53">
+      <c r="B10" s="52">
         <v>44913</v>
       </c>
-      <c r="C10" s="54" t="s">
-        <v>306</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>333</v>
-      </c>
-      <c r="E10" s="56" t="s">
-        <v>334</v>
+      <c r="C10" s="53" t="s">
+        <v>305</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="53">
+      <c r="B11" s="52">
         <v>44937</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>360</v>
+      </c>
+      <c r="E11" s="55" t="s">
         <v>361</v>
       </c>
-      <c r="D11" s="55" t="s">
-        <v>362</v>
-      </c>
-      <c r="E11" s="56" t="s">
-        <v>363</v>
-      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="53">
+      <c r="B12" s="52">
         <v>44979</v>
       </c>
-      <c r="C12" s="54" t="s">
-        <v>428</v>
-      </c>
-      <c r="D12" s="57" t="s">
+      <c r="C12" s="53" t="s">
+        <v>426</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>425</v>
+      </c>
+      <c r="E12" s="55" t="s">
         <v>427</v>
       </c>
-      <c r="E12" s="56" t="s">
-        <v>429</v>
-      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="53">
+      <c r="B13" s="52">
         <v>44988</v>
       </c>
-      <c r="C13" s="54" t="s">
-        <v>428</v>
-      </c>
-      <c r="D13" s="57" t="s">
+      <c r="C13" s="53" t="s">
+        <v>426</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>433</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="52">
+        <v>44995</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>426</v>
+      </c>
+      <c r="D14" s="56" t="s">
         <v>435</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E14" s="55" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="53">
-        <v>44995</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>428</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>437</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>438</v>
-      </c>
-    </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="53">
+      <c r="B15" s="52">
         <v>45047</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="53" t="s">
+        <v>488</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>479</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B16" s="52">
+        <v>45068</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>487</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>489</v>
+      </c>
+      <c r="E16" s="55" t="s">
         <v>490</v>
       </c>
-      <c r="D15" s="57" t="s">
-        <v>481</v>
-      </c>
-      <c r="E15" s="56" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="53">
-        <v>45068</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>489</v>
-      </c>
-      <c r="D16" s="57" t="s">
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="52">
+        <v>45079</v>
+      </c>
+      <c r="C17" s="53" t="s">
         <v>491</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="D17" s="56" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="53">
-        <v>45079</v>
-      </c>
-      <c r="C17" s="54" t="s">
+      <c r="E17" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="D17" s="57" t="s">
-        <v>494</v>
-      </c>
-      <c r="E17" s="56" t="s">
-        <v>495</v>
-      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="53">
+      <c r="B18" s="52">
         <v>45113</v>
       </c>
-      <c r="C18" s="54" t="s">
-        <v>490</v>
-      </c>
-      <c r="D18" s="57" t="s">
-        <v>498</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>499</v>
+      <c r="C18" s="53" t="s">
+        <v>488</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>496</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="53">
+      <c r="B19" s="52">
         <v>45132</v>
       </c>
-      <c r="C19" s="54" t="s">
-        <v>490</v>
-      </c>
-      <c r="D19" s="57" t="s">
-        <v>511</v>
-      </c>
-      <c r="E19" s="56" t="s">
+      <c r="C19" s="53" t="s">
+        <v>488</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>508</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B20" s="90">
+        <v>45280</v>
+      </c>
+      <c r="C20" s="91" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="31"/>
+      <c r="D20" s="91" t="s">
+        <v>513</v>
+      </c>
+      <c r="E20" s="92" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="59"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4575,137 +4653,137 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="22" customWidth="1"/>
-    <col min="2" max="2" width="37.5" style="67" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.25" style="67" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9" style="67"/>
-    <col min="9" max="9" width="9.875" style="67" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="67"/>
+    <col min="1" max="1" width="5.5" style="21" customWidth="1"/>
+    <col min="2" max="2" width="37.5" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.875" style="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.25" style="66" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9" style="66"/>
+    <col min="9" max="9" width="9.875" style="66" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="46" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:4" s="48" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="61"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-    </row>
-    <row r="3" spans="2:4" s="48" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="62" t="s">
+    <row r="1" spans="2:4" s="45" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:4" s="47" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="60"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+    </row>
+    <row r="3" spans="2:4" s="47" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="61" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="2:4" s="48" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-    </row>
-    <row r="5" spans="2:4" s="48" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="63" t="s">
+    <row r="4" spans="2:4" s="47" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="60"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+    </row>
+    <row r="5" spans="2:4" s="47" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="62" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="2:4" s="22" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:4" s="21" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="65" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="D8" s="70"/>
+      <c r="D8" s="69"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="D9" s="72"/>
+      <c r="D9" s="71"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="D10" s="72"/>
+      <c r="D10" s="71"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="72" t="s">
+        <v>473</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="71"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="71"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="72" t="s">
         <v>475</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C13" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="D11" s="72"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="C12" s="69" t="s">
-        <v>220</v>
-      </c>
-      <c r="D12" s="72"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="73" t="s">
-        <v>477</v>
-      </c>
-      <c r="C13" s="69" t="s">
-        <v>220</v>
-      </c>
-      <c r="D13" s="72"/>
+      <c r="D13" s="71"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B14" s="73"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="72"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="71"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="73"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="71"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="73"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="72"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="71"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="73"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="71"/>
     </row>
     <row r="18" spans="2:4" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="74"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="75"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="77"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="77"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="76"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="79"/>
+      <c r="B20" s="78"/>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B128" s="79"/>
+      <c r="B128" s="78"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -5706,7 +5784,7 @@
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="79" t="s">
         <v>231</v>
       </c>
       <c r="C4" s="2"/>
@@ -5743,7 +5821,7 @@
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="79" t="s">
         <v>224</v>
       </c>
       <c r="C9" s="2"/>
@@ -5773,7 +5851,7 @@
     </row>
     <row r="13" spans="1:3" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="79" t="s">
         <v>233</v>
       </c>
       <c r="C13" s="2"/>
@@ -11181,24 +11259,24 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7">
-    <tabColor rgb="FFFF00FF"/>
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C956"/>
+  <dimension ref="A1:E956"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="14" topLeftCell="D180" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="14" topLeftCell="D60" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C42" sqref="C42"/>
       <selection pane="topRight" activeCell="C42" sqref="C42"/>
       <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
-      <selection pane="bottomRight" activeCell="B196" sqref="B196"/>
+      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.875" style="1" customWidth="1"/>
     <col min="2" max="3" width="45.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="9" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="231" width="9" style="13"/>
     <col min="232" max="232" width="1.875" style="13" customWidth="1"/>
     <col min="233" max="233" width="24.5" style="13" customWidth="1"/>
@@ -12154,10 +12232,10 @@
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="83" t="s">
-        <v>314</v>
-      </c>
-      <c r="C2" s="84"/>
+      <c r="B2" s="82" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" s="83"/>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
@@ -12166,7 +12244,7 @@
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="79" t="s">
         <v>231</v>
       </c>
       <c r="C4" s="2"/>
@@ -12177,7 +12255,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>309</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12203,7 +12281,7 @@
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="79" t="s">
         <v>224</v>
       </c>
       <c r="C9" s="2"/>
@@ -12233,7 +12311,7 @@
     </row>
     <row r="13" spans="1:3" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="79" t="s">
         <v>232</v>
       </c>
       <c r="C13" s="2"/>
@@ -12268,7 +12346,7 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>281</v>
@@ -12277,10 +12355,10 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -12304,16 +12382,16 @@
     <row r="21" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>175</v>
@@ -12322,7 +12400,7 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>173</v>
@@ -12340,7 +12418,7 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>172</v>
@@ -12385,10 +12463,10 @@
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -12412,7 +12490,7 @@
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>175</v>
@@ -12421,7 +12499,7 @@
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
       <c r="B34" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>173</v>
@@ -12430,7 +12508,7 @@
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="10"/>
       <c r="B35" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>174</v>
@@ -12439,7 +12517,7 @@
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
       <c r="B36" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>172</v>
@@ -12466,7 +12544,7 @@
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
       <c r="B39" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>181</v>
@@ -12475,7 +12553,7 @@
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
       <c r="B40" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>180</v>
@@ -12493,10 +12571,10 @@
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
       <c r="B42" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -12514,7 +12592,7 @@
         <v>110</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -12628,28 +12706,28 @@
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="10"/>
       <c r="B57" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="10"/>
       <c r="B58" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="10"/>
       <c r="B59" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -12682,25 +12760,25 @@
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="10"/>
       <c r="B63" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
       <c r="B64" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="3"/>
       <c r="B65" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>284</v>
@@ -12709,10 +12787,10 @@
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="3"/>
       <c r="B66" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -12721,31 +12799,31 @@
         <v>292</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="3"/>
       <c r="B68" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="3"/>
       <c r="B69" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="3"/>
       <c r="B70" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>265</v>
@@ -12757,7 +12835,7 @@
         <v>84</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -12772,19 +12850,19 @@
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="3"/>
       <c r="B73" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="3"/>
       <c r="B74" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -12817,49 +12895,55 @@
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="3"/>
       <c r="B78" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="3"/>
       <c r="B79" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="3"/>
       <c r="B80" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="3"/>
       <c r="B81" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="3"/>
-      <c r="B82" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B82" s="93" t="s">
+        <v>518</v>
+      </c>
+      <c r="C82" s="103" t="s">
+        <v>515</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="3"/>
       <c r="B83" s="11" t="s">
         <v>108</v>
@@ -12868,7 +12952,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
       <c r="B84" s="11" t="s">
         <v>235</v>
@@ -12877,7 +12961,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="3"/>
       <c r="B85" s="11" t="s">
         <v>249</v>
@@ -12886,7 +12970,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="3"/>
       <c r="B86" s="11" t="s">
         <v>239</v>
@@ -12895,7 +12979,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="B87" s="11" t="s">
         <v>64</v>
@@ -12904,7 +12988,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="B88" s="11" t="s">
         <v>73</v>
@@ -12913,7 +12997,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="3"/>
       <c r="B89" s="11" t="s">
         <v>76</v>
@@ -12922,7 +13006,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="3"/>
       <c r="B90" s="11" t="s">
         <v>48</v>
@@ -12931,7 +13015,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="3"/>
       <c r="B91" s="11" t="s">
         <v>51</v>
@@ -12940,7 +13024,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="3"/>
       <c r="B92" s="11" t="s">
         <v>52</v>
@@ -12949,7 +13033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="3"/>
       <c r="B93" s="11" t="s">
         <v>107</v>
@@ -12958,7 +13042,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="B94" s="11" t="s">
         <v>234</v>
@@ -12967,7 +13051,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="3"/>
       <c r="B95" s="11" t="s">
         <v>248</v>
@@ -12976,7 +13060,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="3"/>
       <c r="B96" s="11" t="s">
         <v>238</v>
@@ -13042,19 +13126,19 @@
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" s="3"/>
       <c r="B103" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" s="3"/>
       <c r="B104" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
@@ -13108,7 +13192,7 @@
         <v>80</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
@@ -13153,13 +13237,13 @@
         <v>68</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="3"/>
       <c r="B116" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C116" s="11" t="s">
         <v>152</v>
@@ -13177,10 +13261,10 @@
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="3"/>
       <c r="B118" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
@@ -13195,7 +13279,7 @@
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="3"/>
       <c r="B120" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C120" s="11" t="s">
         <v>140</v>
@@ -13258,10 +13342,10 @@
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="10"/>
       <c r="B127" s="11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
@@ -13276,7 +13360,7 @@
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="10"/>
       <c r="B129" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C129" s="11" t="s">
         <v>183</v>
@@ -13285,7 +13369,7 @@
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="10"/>
       <c r="B130" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C130" s="11" t="s">
         <v>261</v>
@@ -13294,52 +13378,52 @@
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="10"/>
       <c r="B131" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="10"/>
       <c r="B132" s="11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="10"/>
       <c r="B133" s="11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="10"/>
       <c r="B134" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="10"/>
       <c r="B135" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="10"/>
       <c r="B136" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C136" s="11" t="s">
         <v>141</v>
@@ -13348,7 +13432,7 @@
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="10"/>
       <c r="B137" s="11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C137" s="16" t="s">
         <v>135</v>
@@ -13357,10 +13441,10 @@
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="10"/>
       <c r="B138" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
@@ -13411,10 +13495,10 @@
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="10"/>
       <c r="B144" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
@@ -13423,7 +13507,7 @@
         <v>82</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
@@ -13432,7 +13516,7 @@
         <v>128</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
@@ -13441,7 +13525,7 @@
         <v>129</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
@@ -13450,16 +13534,16 @@
         <v>130</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="10"/>
       <c r="B149" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
@@ -13468,7 +13552,7 @@
         <v>133</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
@@ -13477,7 +13561,7 @@
         <v>126</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
@@ -13486,7 +13570,7 @@
         <v>125</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
@@ -13495,7 +13579,7 @@
         <v>250</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
@@ -13504,7 +13588,7 @@
         <v>252</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
@@ -13512,8 +13596,8 @@
       <c r="B155" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C155" s="85" t="s">
-        <v>316</v>
+      <c r="C155" s="84" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
@@ -13522,7 +13606,7 @@
         <v>69</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
@@ -13531,7 +13615,7 @@
         <v>127</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
@@ -13540,7 +13624,7 @@
         <v>256</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
@@ -13549,7 +13633,7 @@
         <v>123</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
@@ -13558,7 +13642,7 @@
         <v>124</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
@@ -13567,7 +13651,7 @@
         <v>131</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
@@ -13576,25 +13660,25 @@
         <v>132</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" s="10"/>
       <c r="B163" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" s="10"/>
       <c r="B164" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
@@ -13603,7 +13687,7 @@
         <v>134</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
@@ -13612,7 +13696,7 @@
         <v>254</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
@@ -13621,16 +13705,16 @@
         <v>83</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" s="10"/>
       <c r="B168" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
@@ -13639,7 +13723,7 @@
         <v>251</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
@@ -13648,7 +13732,7 @@
         <v>253</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
@@ -13657,7 +13741,7 @@
         <v>70</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
@@ -13666,7 +13750,7 @@
         <v>257</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
@@ -13675,7 +13759,7 @@
         <v>104</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
@@ -13684,13 +13768,13 @@
         <v>255</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" s="10"/>
       <c r="B175" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C175" s="11" t="s">
         <v>8</v>
@@ -13744,16 +13828,16 @@
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" s="10"/>
       <c r="B181" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" s="10"/>
       <c r="B182" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C182" s="11" t="s">
         <v>152</v>
@@ -13762,16 +13846,16 @@
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" s="10"/>
       <c r="B183" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" s="10"/>
       <c r="B184" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C184" s="11" t="s">
         <v>152</v>
@@ -13780,100 +13864,100 @@
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" s="10"/>
       <c r="B185" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" s="10"/>
       <c r="B186" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" s="10"/>
       <c r="B187" s="11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" s="10"/>
       <c r="B188" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" s="10"/>
       <c r="B189" s="11" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" s="10"/>
       <c r="B190" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" s="10"/>
       <c r="B191" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" s="10"/>
       <c r="B192" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" s="10"/>
       <c r="B193" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194" s="10"/>
       <c r="B194" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" s="10"/>
-      <c r="B195" s="101" t="s">
-        <v>513</v>
-      </c>
-      <c r="C195" s="101" t="s">
-        <v>514</v>
+      <c r="B195" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
@@ -15359,7 +15443,7 @@
     <row r="492" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A492" s="3"/>
       <c r="B492" s="14"/>
-      <c r="C492" s="86"/>
+      <c r="C492" s="85"/>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A493" s="10"/>
@@ -17680,25 +17764,25 @@
       <c r="A956" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="B14:C176"/>
+  <autoFilter ref="B14:C195"/>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="B151">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B168">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B179">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B107">
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B145">
-    <cfRule type="duplicateValues" dxfId="0" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
   </conditionalFormatting>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -18697,7 +18781,7 @@
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="79" t="s">
         <v>231</v>
       </c>
       <c r="C4" s="2"/>
@@ -18734,7 +18818,7 @@
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="79" t="s">
         <v>224</v>
       </c>
       <c r="C9" s="2"/>
@@ -18764,7 +18848,7 @@
     </row>
     <row r="13" spans="1:3" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="79" t="s">
         <v>232</v>
       </c>
       <c r="C13" s="2"/>
@@ -18788,10 +18872,10 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -18800,7 +18884,7 @@
         <v>291</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -18809,7 +18893,7 @@
         <v>109</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -18818,7 +18902,7 @@
         <v>61</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -18827,7 +18911,7 @@
         <v>62</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -18836,7 +18920,7 @@
         <v>59</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -18845,7 +18929,7 @@
         <v>60</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -18854,7 +18938,7 @@
         <v>53</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -18872,7 +18956,7 @@
         <v>105</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -18881,7 +18965,7 @@
         <v>106</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -18890,7 +18974,7 @@
         <v>55</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -18908,7 +18992,7 @@
         <v>57</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -18926,7 +19010,7 @@
         <v>111</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -18935,7 +19019,7 @@
         <v>112</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -18944,7 +19028,7 @@
         <v>113</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -18953,15 +19037,15 @@
         <v>114</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="10"/>
       <c r="B35" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="C35" s="82">
+        <v>358</v>
+      </c>
+      <c r="C35" s="81">
         <v>8003</v>
       </c>
     </row>
@@ -24213,7 +24297,7 @@
       <selection activeCell="D10" sqref="D10"/>
       <selection pane="topRight" activeCell="D10" sqref="D10"/>
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -25177,7 +25261,7 @@
     <row r="2" spans="1:3" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -25188,7 +25272,7 @@
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="79" t="s">
         <v>231</v>
       </c>
       <c r="C4" s="2"/>
@@ -25214,7 +25298,7 @@
       <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:3" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
@@ -25223,7 +25307,7 @@
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="79" t="s">
         <v>224</v>
       </c>
       <c r="C9" s="2"/>
@@ -25253,7 +25337,7 @@
     </row>
     <row r="13" spans="1:3" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="79" t="s">
         <v>232</v>
       </c>
       <c r="C13" s="2"/>
@@ -30654,7 +30738,7 @@
       <selection activeCell="D10" sqref="D10"/>
       <selection pane="topRight" activeCell="D10" sqref="D10"/>
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -31618,7 +31702,7 @@
     <row r="2" spans="1:4" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -31629,7 +31713,7 @@
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="79" t="s">
         <v>231</v>
       </c>
       <c r="C4" s="2"/>
@@ -31640,7 +31724,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -31655,8 +31739,8 @@
       <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>359</v>
+      <c r="C7" s="16" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -31666,7 +31750,7 @@
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="79" t="s">
         <v>224</v>
       </c>
       <c r="C9" s="2"/>
@@ -31696,7 +31780,7 @@
     </row>
     <row r="13" spans="1:4" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="79" t="s">
         <v>232</v>
       </c>
       <c r="C13" s="2"/>
@@ -31713,52 +31797,52 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="D15" s="81" t="s">
-        <v>358</v>
+        <v>346</v>
+      </c>
+      <c r="D15" s="80" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="D16" s="81" t="s">
-        <v>358</v>
+        <v>347</v>
+      </c>
+      <c r="D16" s="80" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -37099,7 +37183,7 @@
       <selection activeCell="D10" sqref="D10"/>
       <selection pane="topRight" activeCell="D10" sqref="D10"/>
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -38065,7 +38149,7 @@
     <row r="2" spans="1:6" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -38080,7 +38164,7 @@
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="79" t="s">
         <v>231</v>
       </c>
       <c r="C4" s="2"/>
@@ -38092,28 +38176,28 @@
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="91" t="s">
-        <v>442</v>
-      </c>
-      <c r="D5" s="88"/>
+      <c r="C5" s="88" t="s">
+        <v>440</v>
+      </c>
+      <c r="D5" s="87"/>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="88"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="87"/>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="90" t="s">
-        <v>443</v>
-      </c>
-      <c r="D7" s="89"/>
+      <c r="C7" s="104" t="s">
+        <v>441</v>
+      </c>
+      <c r="D7" s="105"/>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
@@ -38124,7 +38208,7 @@
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="79" t="s">
         <v>224</v>
       </c>
       <c r="C9" s="2"/>
@@ -38140,10 +38224,10 @@
         <v>226</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -38152,13 +38236,13 @@
         <v>285</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>449</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -38170,7 +38254,7 @@
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="79" t="s">
         <v>232</v>
       </c>
       <c r="C13" s="2"/>
@@ -38183,57 +38267,57 @@
         <v>31</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>448</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="F15" s="81"/>
+      <c r="F15" s="80"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="F16" s="81"/>
+      <c r="F16" s="80"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>152</v>
@@ -38242,13 +38326,13 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>152</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>152</v>
@@ -38257,13 +38341,13 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>152</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>152</v>
@@ -38272,13 +38356,13 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>185</v>
@@ -38287,13 +38371,13 @@
     <row r="21" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>152</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>152</v>
@@ -38302,13 +38386,13 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>152</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>152</v>
@@ -38317,13 +38401,13 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>152</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>152</v>
@@ -38332,13 +38416,13 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>152</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>152</v>
@@ -38347,13 +38431,13 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>152</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>152</v>
@@ -38362,13 +38446,13 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>185</v>
@@ -38377,13 +38461,13 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>152</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>152</v>
@@ -38392,13 +38476,13 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>152</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>152</v>
